--- a/SuppXLS/Scen_TRA_P_ModalShares_LED.xlsx
+++ b/SuppXLS/Scen_TRA_P_ModalShares_LED.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBB9A6C-F3CB-4172-80EC-D909338AD7D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA57D663-3550-4D40-912E-43EA044FE1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -748,7 +748,7 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,10 +865,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color indexed="12"/>
@@ -876,7 +872,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -941,12 +937,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -1061,21 +1051,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1162,26 +1141,15 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="20% - Accent5 2" xfId="9" xr:uid="{0445702F-E158-40C0-A753-3BE54EDCA274}"/>
-    <cellStyle name="20% - Accent5 3" xfId="13" xr:uid="{F549252F-D35E-45EC-A4D2-3EF3DF841AAC}"/>
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="7" xr:uid="{FE672014-E842-4158-BAB9-44A45D6A80A1}"/>
-    <cellStyle name="Comma 3" xfId="11" xr:uid="{AD04B5D4-2F39-41A2-8993-378E2D033AC7}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5" xr:uid="{A0A554B5-7420-419B-BACF-5646042D592A}"/>
-    <cellStyle name="Normal 3" xfId="6" xr:uid="{DFFE3294-3AE9-4664-83A8-009F3C816676}"/>
-    <cellStyle name="Normal 4" xfId="10" xr:uid="{E673CE62-B67E-4AC8-BCC9-88FEB5559169}"/>
-    <cellStyle name="Normal 5" xfId="3" xr:uid="{9AAC06E6-8A8F-416D-A6B1-4A932674DE6F}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="8" xr:uid="{17BFFCEC-48DA-46DC-B65F-B831356BDB3C}"/>
-    <cellStyle name="Percent 3" xfId="12" xr:uid="{B82E14FC-77E0-4E62-B362-3CD556B0F67B}"/>
-    <cellStyle name="Percent 4" xfId="4" xr:uid="{E2CD39BB-8876-4A16-9A4D-0907C936B710}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2351,6 +2319,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D630260-5899-4D31-BAD0-106A3E4DEB19}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:AO111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -2655,7 +2624,7 @@
         <v>0.316</v>
       </c>
       <c r="AH11" s="39">
-        <f t="shared" ref="AH11:AQ12" si="2">ROUNDUP(W$61,3)</f>
+        <f t="shared" ref="AH11:AN12" si="2">ROUNDUP(W$61,3)</f>
         <v>0.30499999999999999</v>
       </c>
       <c r="AI11" s="39">
@@ -3220,7 +3189,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="AH16" s="39">
-        <f t="shared" ref="AH16:AQ17" si="9">ROUNDUP(W$62,3)</f>
+        <f t="shared" ref="AH16:AN17" si="9">ROUNDUP(W$62,3)</f>
         <v>5.1000000000000004E-2</v>
       </c>
       <c r="AI16" s="39">
@@ -4350,7 +4319,7 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="AH26" s="39">
-        <f t="shared" ref="AH26:AQ27" si="25">ROUNDUP(W$64,3)</f>
+        <f t="shared" ref="AH26:AN27" si="25">ROUNDUP(W$64,3)</f>
         <v>0.57099999999999995</v>
       </c>
       <c r="AI26" s="39">
@@ -4915,7 +4884,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="AH31" s="39">
-        <f t="shared" ref="AH31:AQ32" si="32">ROUNDUP(W$65,3)</f>
+        <f t="shared" ref="AH31:AN32" si="32">ROUNDUP(W$65,3)</f>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="AI31" s="39">
@@ -5480,7 +5449,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="AH36" s="39">
-        <f t="shared" ref="AH36:AQ37" si="39">ROUNDUP(W$66,3)</f>
+        <f t="shared" ref="AH36:AN37" si="39">ROUNDUP(W$66,3)</f>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="AI36" s="39">
@@ -6045,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="AH41" s="39">
-        <f t="shared" ref="AH41:AQ42" si="46">ROUNDUP(W$67,3)</f>
+        <f t="shared" ref="AH41:AN42" si="46">ROUNDUP(W$67,3)</f>
         <v>0</v>
       </c>
       <c r="AI41" s="39">
@@ -11499,7 +11468,7 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="AH21" s="39">
-        <f t="shared" ref="AH21:AQ22" si="20">ROUNDUP(W$64,3)</f>
+        <f t="shared" ref="AH21:AN22" si="20">ROUNDUP(W$64,3)</f>
         <v>0.88600000000000001</v>
       </c>
       <c r="AI21" s="39">
@@ -12091,7 +12060,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="AH26" s="39">
-        <f t="shared" ref="AH26:AQ27" si="27">ROUNDUP(W$65,3)</f>
+        <f t="shared" ref="AH26:AN27" si="27">ROUNDUP(W$65,3)</f>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="AI26" s="39">
@@ -12656,7 +12625,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="AH31" s="39">
-        <f t="shared" ref="AH31:AQ32" si="34">ROUNDUP(W$66,3)</f>
+        <f t="shared" ref="AH31:AN32" si="34">ROUNDUP(W$66,3)</f>
         <v>0.1</v>
       </c>
       <c r="AI31" s="39">
@@ -13221,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="39">
-        <f t="shared" ref="AH36:AQ37" si="41">ROUNDUP(W$67,3)</f>
+        <f t="shared" ref="AH36:AN37" si="41">ROUNDUP(W$67,3)</f>
         <v>0</v>
       </c>
       <c r="AI36" s="39">
@@ -13795,7 +13764,7 @@
         <v>0</v>
       </c>
       <c r="AH41" s="39">
-        <f t="shared" ref="AH41:AQ42" si="48">ROUNDUP(W$68,3)</f>
+        <f t="shared" ref="AH41:AN42" si="48">ROUNDUP(W$68,3)</f>
         <v>0</v>
       </c>
       <c r="AI41" s="39">
@@ -17963,6 +17932,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7879FFD-281F-48EB-ACB3-667EC59C3BFB}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:AO82"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -18265,7 +18235,7 @@
         <v>0.746</v>
       </c>
       <c r="AH11" s="39">
-        <f t="shared" ref="AH11:AQ12" si="2">ROUNDUP(W$49,3)</f>
+        <f t="shared" ref="AH11:AN12" si="2">ROUNDUP(W$49,3)</f>
         <v>0.79600000000000004</v>
       </c>
       <c r="AI11" s="39">
@@ -18830,7 +18800,7 @@
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="AH16" s="39">
-        <f t="shared" ref="AH16:AQ17" si="9">ROUNDUP(W$50,3)</f>
+        <f t="shared" ref="AH16:AN17" si="9">ROUNDUP(W$50,3)</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AI16" s="39">
@@ -19395,7 +19365,7 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="AH21" s="39">
-        <f t="shared" ref="AH21:AQ22" si="16">ROUNDUP(W$51,3)</f>
+        <f t="shared" ref="AH21:AN22" si="16">ROUNDUP(W$51,3)</f>
         <v>0.123</v>
       </c>
       <c r="AI21" s="39">
@@ -19961,7 +19931,7 @@
         <v>0.08</v>
       </c>
       <c r="AH26" s="39">
-        <f t="shared" ref="AH26:AQ27" si="23">ROUNDUP(W$53,3)</f>
+        <f t="shared" ref="AH26:AN27" si="23">ROUNDUP(W$53,3)</f>
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="AI26" s="39">
@@ -23815,6 +23785,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA32790-3010-4B5A-8EC1-B2FC1BE655A7}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24222,6 +24193,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA2D48D-5B6C-4382-B72F-39FCD5381087}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SuppXLS/Scen_TRA_P_ModalShares_LED.xlsx
+++ b/SuppXLS/Scen_TRA_P_ModalShares_LED.xlsx
@@ -8,43 +8,110 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA57D663-3550-4D40-912E-43EA044FE1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6B4024-3840-4E2C-AED2-7CD030878363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Regions" sheetId="15" r:id="rId1"/>
-    <sheet name="ShortRange" sheetId="17" r:id="rId2"/>
-    <sheet name="MediumRange" sheetId="1" r:id="rId3"/>
-    <sheet name="LongRange" sheetId="16" r:id="rId4"/>
-    <sheet name="TOPINS" sheetId="20" r:id="rId5"/>
-    <sheet name="common" sheetId="18" r:id="rId6"/>
+    <sheet name="Cover" sheetId="21" r:id="rId1"/>
+    <sheet name="Regions" sheetId="15" r:id="rId2"/>
+    <sheet name="ShortRange" sheetId="17" r:id="rId3"/>
+    <sheet name="MediumRange" sheetId="1" r:id="rId4"/>
+    <sheet name="LongRange" sheetId="16" r:id="rId5"/>
+    <sheet name="TOPINS" sheetId="20" r:id="rId6"/>
+    <sheet name="common" sheetId="18" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="__123Graph_AEUMILKPN" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="__123Graph_AEUMILKPN" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_Y" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">2</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" hidden="1">0.95</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest" hidden="1">0.9</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod" hidden="1">100</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance" hidden="1">0.03</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdate" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdatePeriod" hidden="1">-1</definedName>
+    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportsList" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SimNameCount" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
+    <definedName name="_Regression_Y" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
     <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+    <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskCollectDistributionSamples" hidden="1">2</definedName>
+    <definedName name="RiskFixedSeed" hidden="1">2030000</definedName>
+    <definedName name="RiskHasSettings" hidden="1">5</definedName>
+    <definedName name="RiskMinimizeOnStart" hidden="1">FALSE</definedName>
+    <definedName name="RiskMonitorConvergence" hidden="1">FALSE</definedName>
+    <definedName name="RiskNumIterations" hidden="1">10000</definedName>
+    <definedName name="RiskNumSimulations" hidden="1">1</definedName>
+    <definedName name="RiskPauseOnError" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskSamplingType" hidden="1">3</definedName>
+    <definedName name="RiskStandardRecalc" hidden="1">2</definedName>
+    <definedName name="RiskUpdateDisplay" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseFixedSeed" hidden="1">TRUE</definedName>
+    <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
     <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -84,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="226">
   <si>
     <t>UC_N</t>
   </si>
@@ -735,20 +802,69 @@
   <si>
     <t>OUT</t>
   </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Document type:</t>
+  </si>
+  <si>
+    <t>Template type</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Sector name</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Brief description of what this file is for</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Full Name(s) (Affiliation, email)</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.0000%"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,8 +987,58 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,6 +1114,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,12 +1229,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1145,10 +1325,66 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="22" fillId="14" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{821E0BA4-50F5-4077-9E3B-E4505681D23C}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1169,6 +1405,315 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80035724-BC1F-433B-AA68-E8C78BA9CAA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1"/>
+          <a:ext cx="5796000" cy="2324211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2683</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A218948C-19BC-4758-8260-9C5B0F97F595}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4620" t="8935" r="7748" b="12927"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="8810625"/>
+          <a:ext cx="1431433" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>509323</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312511</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738A5336-695C-4F97-8E25-F087C0E6C3E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1957123" y="8810625"/>
+          <a:ext cx="1250988" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1408474</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75CE291-9766-4275-8D69-7773DDF6BC13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733801" y="8810625"/>
+          <a:ext cx="2018073" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446F73B2-F0D8-44A0-9031-687B28974340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1369" t="6565" r="4012" b="6338"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3628275" y="7962900"/>
+          <a:ext cx="1400925" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEB59D6-E390-480F-B5BA-4989C61336A9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4000" t="26200" r="4000" b="26199"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="8077200"/>
+          <a:ext cx="1676400" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1229,6 +1774,19 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1551,6 +2109,2857 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE6323A-7D3D-4E85-B1DB-A247E4028D6A}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:Z99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="21.7109375" style="43" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="43" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="43" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="43" customWidth="1"/>
+    <col min="13" max="13" width="10" style="43" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="43" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="43" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+    </row>
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="62"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="62"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="62"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="62"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="62"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="67">
+        <v>1</v>
+      </c>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="70"/>
+      <c r="B32" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="55"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="55"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="55"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="55"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55"/>
+      <c r="W41" s="55"/>
+      <c r="X41" s="55"/>
+      <c r="Y41" s="55"/>
+      <c r="Z41" s="55"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="55"/>
+      <c r="Y42" s="55"/>
+      <c r="Z42" s="55"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+      <c r="W43" s="55"/>
+      <c r="X43" s="55"/>
+      <c r="Y43" s="55"/>
+      <c r="Z43" s="55"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="55"/>
+      <c r="Y44" s="55"/>
+      <c r="Z44" s="55"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="55"/>
+      <c r="X45" s="55"/>
+      <c r="Y45" s="55"/>
+      <c r="Z45" s="55"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55"/>
+      <c r="Y46" s="55"/>
+      <c r="Z46" s="55"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55"/>
+      <c r="Z47" s="55"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="55"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="55"/>
+      <c r="Y50" s="55"/>
+      <c r="Z50" s="55"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="55"/>
+      <c r="Y51" s="55"/>
+      <c r="Z51" s="55"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55"/>
+      <c r="R52" s="55"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="55"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="55"/>
+      <c r="Y52" s="55"/>
+      <c r="Z52" s="55"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="55"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="55"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="55"/>
+      <c r="W53" s="55"/>
+      <c r="X53" s="55"/>
+      <c r="Y53" s="55"/>
+      <c r="Z53" s="55"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="55"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="55"/>
+      <c r="W54" s="55"/>
+      <c r="X54" s="55"/>
+      <c r="Y54" s="55"/>
+      <c r="Z54" s="55"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="55"/>
+      <c r="S55" s="55"/>
+      <c r="T55" s="55"/>
+      <c r="U55" s="55"/>
+      <c r="V55" s="55"/>
+      <c r="W55" s="55"/>
+      <c r="X55" s="55"/>
+      <c r="Y55" s="55"/>
+      <c r="Z55" s="55"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="55"/>
+      <c r="W56" s="55"/>
+      <c r="X56" s="55"/>
+      <c r="Y56" s="55"/>
+      <c r="Z56" s="55"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="55"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="55"/>
+      <c r="W57" s="55"/>
+      <c r="X57" s="55"/>
+      <c r="Y57" s="55"/>
+      <c r="Z57" s="55"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="55"/>
+      <c r="U58" s="55"/>
+      <c r="V58" s="55"/>
+      <c r="W58" s="55"/>
+      <c r="X58" s="55"/>
+      <c r="Y58" s="55"/>
+      <c r="Z58" s="55"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="55"/>
+      <c r="O59" s="55"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="55"/>
+      <c r="U59" s="55"/>
+      <c r="V59" s="55"/>
+      <c r="W59" s="55"/>
+      <c r="X59" s="55"/>
+      <c r="Y59" s="55"/>
+      <c r="Z59" s="55"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="55"/>
+      <c r="O60" s="55"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="55"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="55"/>
+      <c r="W60" s="55"/>
+      <c r="X60" s="55"/>
+      <c r="Y60" s="55"/>
+      <c r="Z60" s="55"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="55"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="55"/>
+      <c r="U61" s="55"/>
+      <c r="V61" s="55"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="55"/>
+      <c r="Y61" s="55"/>
+      <c r="Z61" s="55"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="55"/>
+      <c r="Y62" s="55"/>
+      <c r="Z62" s="55"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="55"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="55"/>
+      <c r="W63" s="55"/>
+      <c r="X63" s="55"/>
+      <c r="Y63" s="55"/>
+      <c r="Z63" s="55"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="55"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="55"/>
+      <c r="U64" s="55"/>
+      <c r="V64" s="55"/>
+      <c r="W64" s="55"/>
+      <c r="X64" s="55"/>
+      <c r="Y64" s="55"/>
+      <c r="Z64" s="55"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="55"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="55"/>
+      <c r="S65" s="55"/>
+      <c r="T65" s="55"/>
+      <c r="U65" s="55"/>
+      <c r="V65" s="55"/>
+      <c r="W65" s="55"/>
+      <c r="X65" s="55"/>
+      <c r="Y65" s="55"/>
+      <c r="Z65" s="55"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="55"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="55"/>
+      <c r="R66" s="55"/>
+      <c r="S66" s="55"/>
+      <c r="T66" s="55"/>
+      <c r="U66" s="55"/>
+      <c r="V66" s="55"/>
+      <c r="W66" s="55"/>
+      <c r="X66" s="55"/>
+      <c r="Y66" s="55"/>
+      <c r="Z66" s="55"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="55"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="55"/>
+      <c r="S67" s="55"/>
+      <c r="T67" s="55"/>
+      <c r="U67" s="55"/>
+      <c r="V67" s="55"/>
+      <c r="W67" s="55"/>
+      <c r="X67" s="55"/>
+      <c r="Y67" s="55"/>
+      <c r="Z67" s="55"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="55"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="55"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="55"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="55"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="55"/>
+      <c r="U68" s="55"/>
+      <c r="V68" s="55"/>
+      <c r="W68" s="55"/>
+      <c r="X68" s="55"/>
+      <c r="Y68" s="55"/>
+      <c r="Z68" s="55"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="55"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="55"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="55"/>
+      <c r="S69" s="55"/>
+      <c r="T69" s="55"/>
+      <c r="U69" s="55"/>
+      <c r="V69" s="55"/>
+      <c r="W69" s="55"/>
+      <c r="X69" s="55"/>
+      <c r="Y69" s="55"/>
+      <c r="Z69" s="55"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="55"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="55"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="55"/>
+      <c r="M70" s="55"/>
+      <c r="N70" s="55"/>
+      <c r="O70" s="55"/>
+      <c r="P70" s="55"/>
+      <c r="Q70" s="55"/>
+      <c r="R70" s="55"/>
+      <c r="S70" s="55"/>
+      <c r="T70" s="55"/>
+      <c r="U70" s="55"/>
+      <c r="V70" s="55"/>
+      <c r="W70" s="55"/>
+      <c r="X70" s="55"/>
+      <c r="Y70" s="55"/>
+      <c r="Z70" s="55"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="55"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="55"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="55"/>
+      <c r="P71" s="55"/>
+      <c r="Q71" s="55"/>
+      <c r="R71" s="55"/>
+      <c r="S71" s="55"/>
+      <c r="T71" s="55"/>
+      <c r="U71" s="55"/>
+      <c r="V71" s="55"/>
+      <c r="W71" s="55"/>
+      <c r="X71" s="55"/>
+      <c r="Y71" s="55"/>
+      <c r="Z71" s="55"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="55"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="55"/>
+      <c r="N72" s="55"/>
+      <c r="O72" s="55"/>
+      <c r="P72" s="55"/>
+      <c r="Q72" s="55"/>
+      <c r="R72" s="55"/>
+      <c r="S72" s="55"/>
+      <c r="T72" s="55"/>
+      <c r="U72" s="55"/>
+      <c r="V72" s="55"/>
+      <c r="W72" s="55"/>
+      <c r="X72" s="55"/>
+      <c r="Y72" s="55"/>
+      <c r="Z72" s="55"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="55"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="55"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="55"/>
+      <c r="Q73" s="55"/>
+      <c r="R73" s="55"/>
+      <c r="S73" s="55"/>
+      <c r="T73" s="55"/>
+      <c r="U73" s="55"/>
+      <c r="V73" s="55"/>
+      <c r="W73" s="55"/>
+      <c r="X73" s="55"/>
+      <c r="Y73" s="55"/>
+      <c r="Z73" s="55"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="55"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="55"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="55"/>
+      <c r="P74" s="55"/>
+      <c r="Q74" s="55"/>
+      <c r="R74" s="55"/>
+      <c r="S74" s="55"/>
+      <c r="T74" s="55"/>
+      <c r="U74" s="55"/>
+      <c r="V74" s="55"/>
+      <c r="W74" s="55"/>
+      <c r="X74" s="55"/>
+      <c r="Y74" s="55"/>
+      <c r="Z74" s="55"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="55"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="55"/>
+      <c r="N75" s="55"/>
+      <c r="O75" s="55"/>
+      <c r="P75" s="55"/>
+      <c r="Q75" s="55"/>
+      <c r="R75" s="55"/>
+      <c r="S75" s="55"/>
+      <c r="T75" s="55"/>
+      <c r="U75" s="55"/>
+      <c r="V75" s="55"/>
+      <c r="W75" s="55"/>
+      <c r="X75" s="55"/>
+      <c r="Y75" s="55"/>
+      <c r="Z75" s="55"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="55"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="55"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="55"/>
+      <c r="N76" s="55"/>
+      <c r="O76" s="55"/>
+      <c r="P76" s="55"/>
+      <c r="Q76" s="55"/>
+      <c r="R76" s="55"/>
+      <c r="S76" s="55"/>
+      <c r="T76" s="55"/>
+      <c r="U76" s="55"/>
+      <c r="V76" s="55"/>
+      <c r="W76" s="55"/>
+      <c r="X76" s="55"/>
+      <c r="Y76" s="55"/>
+      <c r="Z76" s="55"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="55"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="55"/>
+      <c r="O77" s="55"/>
+      <c r="P77" s="55"/>
+      <c r="Q77" s="55"/>
+      <c r="R77" s="55"/>
+      <c r="S77" s="55"/>
+      <c r="T77" s="55"/>
+      <c r="U77" s="55"/>
+      <c r="V77" s="55"/>
+      <c r="W77" s="55"/>
+      <c r="X77" s="55"/>
+      <c r="Y77" s="55"/>
+      <c r="Z77" s="55"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="55"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="55"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="55"/>
+      <c r="P78" s="55"/>
+      <c r="Q78" s="55"/>
+      <c r="R78" s="55"/>
+      <c r="S78" s="55"/>
+      <c r="T78" s="55"/>
+      <c r="U78" s="55"/>
+      <c r="V78" s="55"/>
+      <c r="W78" s="55"/>
+      <c r="X78" s="55"/>
+      <c r="Y78" s="55"/>
+      <c r="Z78" s="55"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="55"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="55"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="55"/>
+      <c r="N79" s="55"/>
+      <c r="O79" s="55"/>
+      <c r="P79" s="55"/>
+      <c r="Q79" s="55"/>
+      <c r="R79" s="55"/>
+      <c r="S79" s="55"/>
+      <c r="T79" s="55"/>
+      <c r="U79" s="55"/>
+      <c r="V79" s="55"/>
+      <c r="W79" s="55"/>
+      <c r="X79" s="55"/>
+      <c r="Y79" s="55"/>
+      <c r="Z79" s="55"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="55"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="55"/>
+      <c r="P80" s="55"/>
+      <c r="Q80" s="55"/>
+      <c r="R80" s="55"/>
+      <c r="S80" s="55"/>
+      <c r="T80" s="55"/>
+      <c r="U80" s="55"/>
+      <c r="V80" s="55"/>
+      <c r="W80" s="55"/>
+      <c r="X80" s="55"/>
+      <c r="Y80" s="55"/>
+      <c r="Z80" s="55"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="55"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="55"/>
+      <c r="P81" s="55"/>
+      <c r="Q81" s="55"/>
+      <c r="R81" s="55"/>
+      <c r="S81" s="55"/>
+      <c r="T81" s="55"/>
+      <c r="U81" s="55"/>
+      <c r="V81" s="55"/>
+      <c r="W81" s="55"/>
+      <c r="X81" s="55"/>
+      <c r="Y81" s="55"/>
+      <c r="Z81" s="55"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="55"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="55"/>
+      <c r="O82" s="55"/>
+      <c r="P82" s="55"/>
+      <c r="Q82" s="55"/>
+      <c r="R82" s="55"/>
+      <c r="S82" s="55"/>
+      <c r="T82" s="55"/>
+      <c r="U82" s="55"/>
+      <c r="V82" s="55"/>
+      <c r="W82" s="55"/>
+      <c r="X82" s="55"/>
+      <c r="Y82" s="55"/>
+      <c r="Z82" s="55"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="55"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="55"/>
+      <c r="O83" s="55"/>
+      <c r="P83" s="55"/>
+      <c r="Q83" s="55"/>
+      <c r="R83" s="55"/>
+      <c r="S83" s="55"/>
+      <c r="T83" s="55"/>
+      <c r="U83" s="55"/>
+      <c r="V83" s="55"/>
+      <c r="W83" s="55"/>
+      <c r="X83" s="55"/>
+      <c r="Y83" s="55"/>
+      <c r="Z83" s="55"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="55"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="55"/>
+      <c r="P84" s="55"/>
+      <c r="Q84" s="55"/>
+      <c r="R84" s="55"/>
+      <c r="S84" s="55"/>
+      <c r="T84" s="55"/>
+      <c r="U84" s="55"/>
+      <c r="V84" s="55"/>
+      <c r="W84" s="55"/>
+      <c r="X84" s="55"/>
+      <c r="Y84" s="55"/>
+      <c r="Z84" s="55"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="55"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="55"/>
+      <c r="O85" s="55"/>
+      <c r="P85" s="55"/>
+      <c r="Q85" s="55"/>
+      <c r="R85" s="55"/>
+      <c r="S85" s="55"/>
+      <c r="T85" s="55"/>
+      <c r="U85" s="55"/>
+      <c r="V85" s="55"/>
+      <c r="W85" s="55"/>
+      <c r="X85" s="55"/>
+      <c r="Y85" s="55"/>
+      <c r="Z85" s="55"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="55"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="55"/>
+      <c r="P86" s="55"/>
+      <c r="Q86" s="55"/>
+      <c r="R86" s="55"/>
+      <c r="S86" s="55"/>
+      <c r="T86" s="55"/>
+      <c r="U86" s="55"/>
+      <c r="V86" s="55"/>
+      <c r="W86" s="55"/>
+      <c r="X86" s="55"/>
+      <c r="Y86" s="55"/>
+      <c r="Z86" s="55"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="55"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="55"/>
+      <c r="N87" s="55"/>
+      <c r="O87" s="55"/>
+      <c r="P87" s="55"/>
+      <c r="Q87" s="55"/>
+      <c r="R87" s="55"/>
+      <c r="S87" s="55"/>
+      <c r="T87" s="55"/>
+      <c r="U87" s="55"/>
+      <c r="V87" s="55"/>
+      <c r="W87" s="55"/>
+      <c r="X87" s="55"/>
+      <c r="Y87" s="55"/>
+      <c r="Z87" s="55"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="55"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="55"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="55"/>
+      <c r="Q88" s="55"/>
+      <c r="R88" s="55"/>
+      <c r="S88" s="55"/>
+      <c r="T88" s="55"/>
+      <c r="U88" s="55"/>
+      <c r="V88" s="55"/>
+      <c r="W88" s="55"/>
+      <c r="X88" s="55"/>
+      <c r="Y88" s="55"/>
+      <c r="Z88" s="55"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="55"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="55"/>
+      <c r="J89" s="55"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="55"/>
+      <c r="N89" s="55"/>
+      <c r="O89" s="55"/>
+      <c r="P89" s="55"/>
+      <c r="Q89" s="55"/>
+      <c r="R89" s="55"/>
+      <c r="S89" s="55"/>
+      <c r="T89" s="55"/>
+      <c r="U89" s="55"/>
+      <c r="V89" s="55"/>
+      <c r="W89" s="55"/>
+      <c r="X89" s="55"/>
+      <c r="Y89" s="55"/>
+      <c r="Z89" s="55"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="55"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="55"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="55"/>
+      <c r="M90" s="55"/>
+      <c r="N90" s="55"/>
+      <c r="O90" s="55"/>
+      <c r="P90" s="55"/>
+      <c r="Q90" s="55"/>
+      <c r="R90" s="55"/>
+      <c r="S90" s="55"/>
+      <c r="T90" s="55"/>
+      <c r="U90" s="55"/>
+      <c r="V90" s="55"/>
+      <c r="W90" s="55"/>
+      <c r="X90" s="55"/>
+      <c r="Y90" s="55"/>
+      <c r="Z90" s="55"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="55"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="55"/>
+      <c r="K91" s="55"/>
+      <c r="L91" s="55"/>
+      <c r="M91" s="55"/>
+      <c r="N91" s="55"/>
+      <c r="O91" s="55"/>
+      <c r="P91" s="55"/>
+      <c r="Q91" s="55"/>
+      <c r="R91" s="55"/>
+      <c r="S91" s="55"/>
+      <c r="T91" s="55"/>
+      <c r="U91" s="55"/>
+      <c r="V91" s="55"/>
+      <c r="W91" s="55"/>
+      <c r="X91" s="55"/>
+      <c r="Y91" s="55"/>
+      <c r="Z91" s="55"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="55"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="55"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="55"/>
+      <c r="N92" s="55"/>
+      <c r="O92" s="55"/>
+      <c r="P92" s="55"/>
+      <c r="Q92" s="55"/>
+      <c r="R92" s="55"/>
+      <c r="S92" s="55"/>
+      <c r="T92" s="55"/>
+      <c r="U92" s="55"/>
+      <c r="V92" s="55"/>
+      <c r="W92" s="55"/>
+      <c r="X92" s="55"/>
+      <c r="Y92" s="55"/>
+      <c r="Z92" s="55"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="55"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="55"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="55"/>
+      <c r="M93" s="55"/>
+      <c r="N93" s="55"/>
+      <c r="O93" s="55"/>
+      <c r="P93" s="55"/>
+      <c r="Q93" s="55"/>
+      <c r="R93" s="55"/>
+      <c r="S93" s="55"/>
+      <c r="T93" s="55"/>
+      <c r="U93" s="55"/>
+      <c r="V93" s="55"/>
+      <c r="W93" s="55"/>
+      <c r="X93" s="55"/>
+      <c r="Y93" s="55"/>
+      <c r="Z93" s="55"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="55"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="55"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="55"/>
+      <c r="M94" s="55"/>
+      <c r="N94" s="55"/>
+      <c r="O94" s="55"/>
+      <c r="P94" s="55"/>
+      <c r="Q94" s="55"/>
+      <c r="R94" s="55"/>
+      <c r="S94" s="55"/>
+      <c r="T94" s="55"/>
+      <c r="U94" s="55"/>
+      <c r="V94" s="55"/>
+      <c r="W94" s="55"/>
+      <c r="X94" s="55"/>
+      <c r="Y94" s="55"/>
+      <c r="Z94" s="55"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="55"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="55"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="55"/>
+      <c r="M95" s="55"/>
+      <c r="N95" s="55"/>
+      <c r="O95" s="55"/>
+      <c r="P95" s="55"/>
+      <c r="Q95" s="55"/>
+      <c r="R95" s="55"/>
+      <c r="S95" s="55"/>
+      <c r="T95" s="55"/>
+      <c r="U95" s="55"/>
+      <c r="V95" s="55"/>
+      <c r="W95" s="55"/>
+      <c r="X95" s="55"/>
+      <c r="Y95" s="55"/>
+      <c r="Z95" s="55"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="55"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="55"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="55"/>
+      <c r="M96" s="55"/>
+      <c r="N96" s="55"/>
+      <c r="O96" s="55"/>
+      <c r="P96" s="55"/>
+      <c r="Q96" s="55"/>
+      <c r="R96" s="55"/>
+      <c r="S96" s="55"/>
+      <c r="T96" s="55"/>
+      <c r="U96" s="55"/>
+      <c r="V96" s="55"/>
+      <c r="W96" s="55"/>
+      <c r="X96" s="55"/>
+      <c r="Y96" s="55"/>
+      <c r="Z96" s="55"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="55"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="55"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="55"/>
+      <c r="M97" s="55"/>
+      <c r="N97" s="55"/>
+      <c r="O97" s="55"/>
+      <c r="P97" s="55"/>
+      <c r="Q97" s="55"/>
+      <c r="R97" s="55"/>
+      <c r="S97" s="55"/>
+      <c r="T97" s="55"/>
+      <c r="U97" s="55"/>
+      <c r="V97" s="55"/>
+      <c r="W97" s="55"/>
+      <c r="X97" s="55"/>
+      <c r="Y97" s="55"/>
+      <c r="Z97" s="55"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="55"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="55"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="55"/>
+      <c r="M98" s="55"/>
+      <c r="N98" s="55"/>
+      <c r="O98" s="55"/>
+      <c r="P98" s="55"/>
+      <c r="Q98" s="55"/>
+      <c r="R98" s="55"/>
+      <c r="S98" s="55"/>
+      <c r="T98" s="55"/>
+      <c r="U98" s="55"/>
+      <c r="V98" s="55"/>
+      <c r="W98" s="55"/>
+      <c r="X98" s="55"/>
+      <c r="Y98" s="55"/>
+      <c r="Z98" s="55"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="55"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="55"/>
+      <c r="P99" s="55"/>
+      <c r="Q99" s="55"/>
+      <c r="R99" s="55"/>
+      <c r="S99" s="55"/>
+      <c r="T99" s="55"/>
+      <c r="U99" s="55"/>
+      <c r="V99" s="55"/>
+      <c r="W99" s="55"/>
+      <c r="X99" s="55"/>
+      <c r="Y99" s="55"/>
+      <c r="Z99" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{D7AC6DEC-5921-4937-AE92-53656FB76D0A}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{EFFCCEFD-9BAC-4CF3-AF95-6E4A860463FE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C030FF-C503-4743-9DBD-437AEB1E949D}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:AD37"/>
@@ -2317,12 +5726,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D630260-5899-4D31-BAD0-106A3E4DEB19}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:AO111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
@@ -9959,7 +13368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:AO99"/>
@@ -17930,7 +21339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7879FFD-281F-48EB-ACB3-667EC59C3BFB}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:AO82"/>
@@ -23783,7 +27192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA32790-3010-4B5A-8EC1-B2FC1BE655A7}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:AI5"/>
@@ -24191,7 +27600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA2D48D-5B6C-4382-B72F-39FCD5381087}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:G61"/>

--- a/SuppXLS/Scen_TRA_P_ModalShares_LED.xlsx
+++ b/SuppXLS/Scen_TRA_P_ModalShares_LED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6B4024-3840-4E2C-AED2-7CD030878363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C62718C-3C65-4E06-ACAB-0A10ADC1EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="21" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="TOPINS" sheetId="20" r:id="rId6"/>
     <sheet name="common" sheetId="18" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="2" hidden="1">#REF!</definedName>
@@ -151,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="227">
   <si>
     <t>UC_N</t>
   </si>
@@ -809,25 +806,13 @@
     <t>Document type:</t>
   </si>
   <si>
-    <t>Template type</t>
-  </si>
-  <si>
     <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Sector name</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Brief description of what this file is for</t>
-  </si>
-  <si>
     <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Full Name(s) (Affiliation, email)</t>
   </si>
   <si>
     <t>Current maintainer(s):</t>
@@ -849,6 +834,21 @@
   </si>
   <si>
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Scenario file</t>
+  </si>
+  <si>
+    <t>Transport (TRA)</t>
+  </si>
+  <si>
+    <t>Vahid Aryanpur (UCC, vahid.aryanpur@ucc.ie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olexandr Balyk ( MaREI, olexandr.balyk@ucc.ie) </t>
+  </si>
+  <si>
+    <t>Share of transport modes in passenger demand in low energy demand scenario</t>
   </si>
 </sst>
 </file>
@@ -1331,9 +1331,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1352,9 +1349,6 @@
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1367,14 +1361,20 @@
     <xf numFmtId="170" fontId="22" fillId="14" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1726,7 +1726,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1738,7 +1738,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1774,19 +1774,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2113,25 +2100,25 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="43" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="43" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="43" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="43" customWidth="1"/>
+    <col min="1" max="4" width="21.6640625" style="43" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" style="43" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="43" customWidth="1"/>
+    <col min="8" max="10" width="8.109375" style="43" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="43" customWidth="1"/>
     <col min="13" max="13" width="10" style="43" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="43" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="43" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="43"/>
+    <col min="14" max="14" width="11.44140625" style="43" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="43" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -2159,7 +2146,7 @@
       <c r="Y1" s="55"/>
       <c r="Z1" s="55"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="54"/>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
@@ -2187,7 +2174,7 @@
       <c r="Y2" s="55"/>
       <c r="Z2" s="55"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="54"/>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
@@ -2215,7 +2202,7 @@
       <c r="Y3" s="55"/>
       <c r="Z3" s="55"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
@@ -2243,7 +2230,7 @@
       <c r="Y4" s="55"/>
       <c r="Z4" s="55"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="54"/>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
@@ -2271,7 +2258,7 @@
       <c r="Y5" s="55"/>
       <c r="Z5" s="55"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
@@ -2299,7 +2286,7 @@
       <c r="Y6" s="55"/>
       <c r="Z6" s="55"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="54"/>
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
@@ -2327,7 +2314,7 @@
       <c r="Y7" s="55"/>
       <c r="Z7" s="55"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
@@ -2355,7 +2342,7 @@
       <c r="Y8" s="55"/>
       <c r="Z8" s="55"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
@@ -2383,7 +2370,7 @@
       <c r="Y9" s="55"/>
       <c r="Z9" s="55"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
@@ -2411,7 +2398,7 @@
       <c r="Y10" s="55"/>
       <c r="Z10" s="55"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
@@ -2439,7 +2426,7 @@
       <c r="Y11" s="55"/>
       <c r="Z11" s="55"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="54"/>
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
@@ -2467,7 +2454,7 @@
       <c r="Y12" s="55"/>
       <c r="Z12" s="55"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="54"/>
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
@@ -2495,7 +2482,7 @@
       <c r="Y13" s="55"/>
       <c r="Z13" s="55"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="54"/>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -2523,7 +2510,7 @@
       <c r="Y14" s="55"/>
       <c r="Z14" s="55"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="54"/>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
@@ -2551,21 +2538,21 @@
       <c r="Y15" s="55"/>
       <c r="Z15" s="55"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="55"/>
       <c r="N16" s="55"/>
       <c r="O16" s="55"/>
@@ -2581,11 +2568,11 @@
       <c r="Y16" s="55"/>
       <c r="Z16" s="55"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
@@ -2609,19 +2596,19 @@
       <c r="Y17" s="55"/>
       <c r="Z17" s="55"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
       <c r="M18" s="55"/>
       <c r="N18" s="55"/>
       <c r="O18" s="55"/>
@@ -2637,23 +2624,23 @@
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
+      <c r="B19" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
       <c r="M19" s="55"/>
       <c r="N19" s="55"/>
       <c r="O19" s="55"/>
@@ -2669,23 +2656,23 @@
       <c r="Y19" s="55"/>
       <c r="Z19" s="55"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="55"/>
       <c r="N20" s="55"/>
       <c r="O20" s="55"/>
@@ -2701,23 +2688,23 @@
       <c r="Y20" s="55"/>
       <c r="Z20" s="55"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
       <c r="M21" s="55"/>
       <c r="N21" s="55"/>
       <c r="O21" s="55"/>
@@ -2733,19 +2720,19 @@
       <c r="Y21" s="55"/>
       <c r="Z21" s="55"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="61"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
       <c r="M22" s="55"/>
       <c r="N22" s="55"/>
       <c r="O22" s="55"/>
@@ -2761,15 +2748,15 @@
       <c r="Y22" s="55"/>
       <c r="Z22" s="55"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
       <c r="G23" s="55"/>
@@ -2793,11 +2780,13 @@
       <c r="Y23" s="55"/>
       <c r="Z23" s="55"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="61"/>
+      <c r="B24" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
@@ -2821,11 +2810,11 @@
       <c r="Y24" s="55"/>
       <c r="Z24" s="55"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="61"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
@@ -2849,15 +2838,15 @@
       <c r="Y25" s="55"/>
       <c r="Z25" s="55"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
       <c r="G26" s="55"/>
@@ -2881,11 +2870,13 @@
       <c r="Y26" s="55"/>
       <c r="Z26" s="55"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="61"/>
+      <c r="B27" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
@@ -2909,11 +2900,11 @@
       <c r="Y27" s="55"/>
       <c r="Z27" s="55"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="61"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
@@ -2937,15 +2928,15 @@
       <c r="Y28" s="55"/>
       <c r="Z28" s="55"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="B29" s="67">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="65">
         <v>1</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
@@ -2969,17 +2960,17 @@
       <c r="Y29" s="55"/>
       <c r="Z29" s="55"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
       <c r="G30" s="55"/>
       <c r="H30" s="55"/>
       <c r="I30" s="55"/>
@@ -3001,17 +2992,17 @@
       <c r="Y30" s="55"/>
       <c r="Z30" s="55"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
       <c r="G31" s="55"/>
       <c r="H31" s="55"/>
       <c r="I31" s="55"/>
@@ -3033,13 +3024,13 @@
       <c r="Y31" s="55"/>
       <c r="Z31" s="55"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="67"/>
+      <c r="B32" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
@@ -3063,7 +3054,7 @@
       <c r="Y32" s="55"/>
       <c r="Z32" s="55"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="54"/>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
@@ -3091,7 +3082,7 @@
       <c r="Y33" s="55"/>
       <c r="Z33" s="55"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="54"/>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
@@ -3119,7 +3110,7 @@
       <c r="Y34" s="55"/>
       <c r="Z34" s="55"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="54"/>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -3147,7 +3138,7 @@
       <c r="Y35" s="55"/>
       <c r="Z35" s="55"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="54"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
@@ -3175,7 +3166,7 @@
       <c r="Y36" s="55"/>
       <c r="Z36" s="55"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="54"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
@@ -3203,7 +3194,7 @@
       <c r="Y37" s="55"/>
       <c r="Z37" s="55"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="54"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
@@ -3231,7 +3222,7 @@
       <c r="Y38" s="55"/>
       <c r="Z38" s="55"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="54"/>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
@@ -3259,7 +3250,7 @@
       <c r="Y39" s="55"/>
       <c r="Z39" s="55"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="54"/>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -3287,7 +3278,7 @@
       <c r="Y40" s="55"/>
       <c r="Z40" s="55"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="54"/>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
@@ -3315,7 +3306,7 @@
       <c r="Y41" s="55"/>
       <c r="Z41" s="55"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="54"/>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -3343,7 +3334,7 @@
       <c r="Y42" s="55"/>
       <c r="Z42" s="55"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="55"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
@@ -3371,7 +3362,7 @@
       <c r="Y43" s="55"/>
       <c r="Z43" s="55"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="55"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -3399,7 +3390,7 @@
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="55"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -3427,7 +3418,7 @@
       <c r="Y45" s="55"/>
       <c r="Z45" s="55"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="55"/>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -3455,7 +3446,7 @@
       <c r="Y46" s="55"/>
       <c r="Z46" s="55"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="55"/>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
@@ -3483,7 +3474,7 @@
       <c r="Y47" s="55"/>
       <c r="Z47" s="55"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="55"/>
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
@@ -3511,7 +3502,7 @@
       <c r="Y48" s="55"/>
       <c r="Z48" s="55"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="55"/>
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
@@ -3539,7 +3530,7 @@
       <c r="Y49" s="55"/>
       <c r="Z49" s="55"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="55"/>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
@@ -3567,7 +3558,7 @@
       <c r="Y50" s="55"/>
       <c r="Z50" s="55"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
@@ -3595,7 +3586,7 @@
       <c r="Y51" s="55"/>
       <c r="Z51" s="55"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="55"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -3623,7 +3614,7 @@
       <c r="Y52" s="55"/>
       <c r="Z52" s="55"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="55"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -3651,7 +3642,7 @@
       <c r="Y53" s="55"/>
       <c r="Z53" s="55"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="55"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -3679,7 +3670,7 @@
       <c r="Y54" s="55"/>
       <c r="Z54" s="55"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="55"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -3707,7 +3698,7 @@
       <c r="Y55" s="55"/>
       <c r="Z55" s="55"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="55"/>
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
@@ -3735,7 +3726,7 @@
       <c r="Y56" s="55"/>
       <c r="Z56" s="55"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="55"/>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -3763,7 +3754,7 @@
       <c r="Y57" s="55"/>
       <c r="Z57" s="55"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="55"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55"/>
@@ -3791,7 +3782,7 @@
       <c r="Y58" s="55"/>
       <c r="Z58" s="55"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="55"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55"/>
@@ -3819,7 +3810,7 @@
       <c r="Y59" s="55"/>
       <c r="Z59" s="55"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="55"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55"/>
@@ -3847,7 +3838,7 @@
       <c r="Y60" s="55"/>
       <c r="Z60" s="55"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="55"/>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -3875,7 +3866,7 @@
       <c r="Y61" s="55"/>
       <c r="Z61" s="55"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="55"/>
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
@@ -3903,7 +3894,7 @@
       <c r="Y62" s="55"/>
       <c r="Z62" s="55"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="55"/>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -3931,7 +3922,7 @@
       <c r="Y63" s="55"/>
       <c r="Z63" s="55"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="55"/>
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
@@ -3959,7 +3950,7 @@
       <c r="Y64" s="55"/>
       <c r="Z64" s="55"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
@@ -3987,7 +3978,7 @@
       <c r="Y65" s="55"/>
       <c r="Z65" s="55"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="55"/>
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
@@ -4015,7 +4006,7 @@
       <c r="Y66" s="55"/>
       <c r="Z66" s="55"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
@@ -4043,7 +4034,7 @@
       <c r="Y67" s="55"/>
       <c r="Z67" s="55"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="55"/>
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
@@ -4071,7 +4062,7 @@
       <c r="Y68" s="55"/>
       <c r="Z68" s="55"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
@@ -4099,7 +4090,7 @@
       <c r="Y69" s="55"/>
       <c r="Z69" s="55"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="55"/>
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
@@ -4127,7 +4118,7 @@
       <c r="Y70" s="55"/>
       <c r="Z70" s="55"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
@@ -4155,7 +4146,7 @@
       <c r="Y71" s="55"/>
       <c r="Z71" s="55"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="55"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -4183,7 +4174,7 @@
       <c r="Y72" s="55"/>
       <c r="Z72" s="55"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
@@ -4211,7 +4202,7 @@
       <c r="Y73" s="55"/>
       <c r="Z73" s="55"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="55"/>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -4239,7 +4230,7 @@
       <c r="Y74" s="55"/>
       <c r="Z74" s="55"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
@@ -4267,7 +4258,7 @@
       <c r="Y75" s="55"/>
       <c r="Z75" s="55"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="55"/>
       <c r="B76" s="55"/>
       <c r="C76" s="55"/>
@@ -4295,7 +4286,7 @@
       <c r="Y76" s="55"/>
       <c r="Z76" s="55"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="55"/>
       <c r="B77" s="55"/>
       <c r="C77" s="55"/>
@@ -4323,7 +4314,7 @@
       <c r="Y77" s="55"/>
       <c r="Z77" s="55"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="55"/>
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
@@ -4351,7 +4342,7 @@
       <c r="Y78" s="55"/>
       <c r="Z78" s="55"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="55"/>
       <c r="B79" s="55"/>
       <c r="C79" s="55"/>
@@ -4379,7 +4370,7 @@
       <c r="Y79" s="55"/>
       <c r="Z79" s="55"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="55"/>
       <c r="B80" s="55"/>
       <c r="C80" s="55"/>
@@ -4407,7 +4398,7 @@
       <c r="Y80" s="55"/>
       <c r="Z80" s="55"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="55"/>
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
@@ -4435,7 +4426,7 @@
       <c r="Y81" s="55"/>
       <c r="Z81" s="55"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="55"/>
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
@@ -4463,7 +4454,7 @@
       <c r="Y82" s="55"/>
       <c r="Z82" s="55"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="55"/>
       <c r="B83" s="55"/>
       <c r="C83" s="55"/>
@@ -4491,7 +4482,7 @@
       <c r="Y83" s="55"/>
       <c r="Z83" s="55"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="55"/>
       <c r="B84" s="55"/>
       <c r="C84" s="55"/>
@@ -4519,7 +4510,7 @@
       <c r="Y84" s="55"/>
       <c r="Z84" s="55"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="55"/>
       <c r="B85" s="55"/>
       <c r="C85" s="55"/>
@@ -4547,7 +4538,7 @@
       <c r="Y85" s="55"/>
       <c r="Z85" s="55"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="55"/>
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
@@ -4575,7 +4566,7 @@
       <c r="Y86" s="55"/>
       <c r="Z86" s="55"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="55"/>
       <c r="B87" s="55"/>
       <c r="C87" s="55"/>
@@ -4603,7 +4594,7 @@
       <c r="Y87" s="55"/>
       <c r="Z87" s="55"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="55"/>
       <c r="B88" s="55"/>
       <c r="C88" s="55"/>
@@ -4631,7 +4622,7 @@
       <c r="Y88" s="55"/>
       <c r="Z88" s="55"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="55"/>
       <c r="B89" s="55"/>
       <c r="C89" s="55"/>
@@ -4659,7 +4650,7 @@
       <c r="Y89" s="55"/>
       <c r="Z89" s="55"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="55"/>
       <c r="B90" s="55"/>
       <c r="C90" s="55"/>
@@ -4687,7 +4678,7 @@
       <c r="Y90" s="55"/>
       <c r="Z90" s="55"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="55"/>
       <c r="B91" s="55"/>
       <c r="C91" s="55"/>
@@ -4715,7 +4706,7 @@
       <c r="Y91" s="55"/>
       <c r="Z91" s="55"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="55"/>
       <c r="B92" s="55"/>
       <c r="C92" s="55"/>
@@ -4743,7 +4734,7 @@
       <c r="Y92" s="55"/>
       <c r="Z92" s="55"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="55"/>
       <c r="B93" s="55"/>
       <c r="C93" s="55"/>
@@ -4771,7 +4762,7 @@
       <c r="Y93" s="55"/>
       <c r="Z93" s="55"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="55"/>
       <c r="B94" s="55"/>
       <c r="C94" s="55"/>
@@ -4799,7 +4790,7 @@
       <c r="Y94" s="55"/>
       <c r="Z94" s="55"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="55"/>
       <c r="B95" s="55"/>
       <c r="C95" s="55"/>
@@ -4827,7 +4818,7 @@
       <c r="Y95" s="55"/>
       <c r="Z95" s="55"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="55"/>
       <c r="B96" s="55"/>
       <c r="C96" s="55"/>
@@ -4855,7 +4846,7 @@
       <c r="Y96" s="55"/>
       <c r="Z96" s="55"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="55"/>
       <c r="B97" s="55"/>
       <c r="C97" s="55"/>
@@ -4883,7 +4874,7 @@
       <c r="Y97" s="55"/>
       <c r="Z97" s="55"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="55"/>
       <c r="B98" s="55"/>
       <c r="C98" s="55"/>
@@ -4911,7 +4902,7 @@
       <c r="Y98" s="55"/>
       <c r="Z98" s="55"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="55"/>
       <c r="B99" s="55"/>
       <c r="C99" s="55"/>
@@ -4940,7 +4931,7 @@
       <c r="Z99" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="B19:D19"/>
@@ -4948,6 +4939,8 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B30" r:id="rId1" xr:uid="{D7AC6DEC-5921-4937-AE92-53656FB76D0A}"/>
@@ -4968,40 +4961,40 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="2"/>
+    <col min="29" max="29" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C3" s="11" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -5115,12 +5108,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
@@ -5235,7 +5228,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -5352,7 +5345,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
@@ -5469,7 +5462,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>66</v>
       </c>
@@ -5477,7 +5470,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>68</v>
       </c>
@@ -5485,7 +5478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>69</v>
       </c>
@@ -5493,7 +5486,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>70</v>
       </c>
@@ -5501,7 +5494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>71</v>
       </c>
@@ -5509,7 +5502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>72</v>
       </c>
@@ -5517,7 +5510,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>73</v>
       </c>
@@ -5525,7 +5518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>74</v>
       </c>
@@ -5533,7 +5526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>75</v>
       </c>
@@ -5541,7 +5534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>76</v>
       </c>
@@ -5549,7 +5542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>77</v>
       </c>
@@ -5557,7 +5550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>78</v>
       </c>
@@ -5565,7 +5558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>79</v>
       </c>
@@ -5573,7 +5566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5581,7 +5574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>81</v>
       </c>
@@ -5589,7 +5582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>82</v>
       </c>
@@ -5597,7 +5590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>83</v>
       </c>
@@ -5605,7 +5598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>84</v>
       </c>
@@ -5613,7 +5606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>85</v>
       </c>
@@ -5621,7 +5614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>86</v>
       </c>
@@ -5629,7 +5622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>87</v>
       </c>
@@ -5637,7 +5630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>88</v>
       </c>
@@ -5645,7 +5638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>89</v>
       </c>
@@ -5653,7 +5646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>90</v>
       </c>
@@ -5661,7 +5654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>91</v>
       </c>
@@ -5669,7 +5662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>92</v>
       </c>
@@ -5677,7 +5670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>93</v>
       </c>
@@ -5685,7 +5678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>94</v>
       </c>
@@ -5711,7 +5704,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5731,28 +5724,28 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:AO111"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A43" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="10.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="43" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="29" width="10.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="30" max="40" width="10.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="43"/>
+    <col min="1" max="1" width="20.109375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="10.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="43" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="29" width="10.88671875" style="43" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="10.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.109375" style="43"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.4">
       <c r="C3" s="47" t="s">
         <v>195</v>
       </c>
@@ -5761,27 +5754,27 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
     </row>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B6" s="43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
       <c r="K9" s="43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
@@ -5927,7 +5920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C11" s="43" t="s">
         <v>59</v>
       </c>
@@ -6064,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
       <c r="E12" s="43" t="str">
         <f>E11</f>
         <v>T-WLK_WLK</v>
@@ -6194,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
       <c r="E13" s="43" t="str">
         <f t="shared" ref="E13:E14" si="3">E12</f>
         <v>T-WLK_WLK</v>
@@ -6324,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
       <c r="E14" s="43" t="str">
         <f t="shared" si="3"/>
         <v>T-WLK_WLK</v>
@@ -6454,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
       <c r="J15" s="43">
         <v>0</v>
       </c>
@@ -6492,7 +6485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C16" s="43" t="s">
         <v>45</v>
       </c>
@@ -6629,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E17" s="43" t="str">
         <f>E16</f>
         <v>T-CYC_CYC</v>
@@ -6759,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E18" s="43" t="str">
         <f t="shared" ref="E18:E19" si="10">E17</f>
         <v>T-CYC_CYC</v>
@@ -6889,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E19" s="43" t="str">
         <f t="shared" si="10"/>
         <v>T-CYC_CYC</v>
@@ -7019,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J20" s="43">
         <v>0</v>
       </c>
@@ -7057,7 +7050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C21" s="43" t="s">
         <v>46</v>
       </c>
@@ -7194,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E22" s="43" t="str">
         <f>E21</f>
         <v>T-MOT*</v>
@@ -7324,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E23" s="43" t="str">
         <f t="shared" ref="E23:E24" si="17">E22</f>
         <v>T-MOT*</v>
@@ -7454,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E24" s="43" t="str">
         <f t="shared" si="17"/>
         <v>T-MOT*</v>
@@ -7584,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J25" s="43">
         <v>0</v>
       </c>
@@ -7622,7 +7615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C26" s="43" t="s">
         <v>47</v>
       </c>
@@ -7759,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E27" s="43" t="str">
         <f>E26</f>
         <v>T-CAR*</v>
@@ -7889,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E28" s="43" t="str">
         <f t="shared" ref="E28:E29" si="26">E27</f>
         <v>T-CAR*</v>
@@ -8019,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E29" s="43" t="str">
         <f t="shared" si="26"/>
         <v>T-CAR*</v>
@@ -8149,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J30" s="43">
         <v>0</v>
       </c>
@@ -8187,7 +8180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C31" s="43" t="s">
         <v>48</v>
       </c>
@@ -8324,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E32" s="43" t="str">
         <f>E31</f>
         <v>T-TAX*</v>
@@ -8454,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E33" s="43" t="str">
         <f t="shared" ref="E33:E34" si="33">E32</f>
         <v>T-TAX*</v>
@@ -8584,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E34" s="43" t="str">
         <f t="shared" si="33"/>
         <v>T-TAX*</v>
@@ -8714,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J35" s="43">
         <v>0</v>
       </c>
@@ -8752,7 +8745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C36" s="43" t="s">
         <v>49</v>
       </c>
@@ -8889,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E37" s="43" t="str">
         <f>E36</f>
         <v>T-BUS*</v>
@@ -9019,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E38" s="43" t="str">
         <f t="shared" ref="E38:E39" si="40">E37</f>
         <v>T-BUS*</v>
@@ -9149,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E39" s="43" t="str">
         <f t="shared" si="40"/>
         <v>T-BUS*</v>
@@ -9279,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J40" s="43">
         <v>0</v>
       </c>
@@ -9317,7 +9310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C41" s="43" t="s">
         <v>58</v>
       </c>
@@ -9454,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E42" s="43" t="str">
         <f>E41</f>
         <v>T-LPT*</v>
@@ -9584,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E43" s="43" t="str">
         <f t="shared" ref="E43:E44" si="47">E42</f>
         <v>T-LPT*</v>
@@ -9714,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E44" s="43" t="str">
         <f t="shared" si="47"/>
         <v>T-LPT*</v>
@@ -9844,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -9891,10 +9884,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:41" x14ac:dyDescent="0.3">
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:41" x14ac:dyDescent="0.3">
       <c r="M47" s="43" t="s">
         <v>190</v>
       </c>
@@ -10007,7 +10000,7 @@
         <v>1.0018</v>
       </c>
     </row>
-    <row r="48" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:41" x14ac:dyDescent="0.3">
       <c r="N48" s="40">
         <f t="shared" ref="N48:AN48" si="52">SUM(N12,N17,N22,N27,N32,N37,N42)</f>
         <v>1.0023</v>
@@ -10117,7 +10110,7 @@
         <v>1.0018</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
       <c r="N49" s="40">
         <f t="shared" ref="N49:AN49" si="53">SUM(N13,N18,N23,N28,N33,N38,N43)</f>
         <v>1.0029999999999999</v>
@@ -10227,7 +10220,7 @@
         <v>1.0018</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
       <c r="N50" s="40">
         <f t="shared" ref="N50:AN50" si="54">SUM(N14,N19,N24,N29,N34,N39,N44)</f>
@@ -10338,10 +10331,10 @@
         <v>1.0018</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C51" s="1"/>
     </row>
-    <row r="57" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="29" t="s">
         <v>187</v>
       </c>
@@ -10350,7 +10343,7 @@
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
     </row>
-    <row r="59" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>202</v>
       </c>
@@ -10383,7 +10376,7 @@
       <c r="AB59" s="31"/>
       <c r="AC59" s="31"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
         <v>174</v>
       </c>
@@ -10472,7 +10465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
         <v>176</v>
       </c>
@@ -10561,7 +10554,7 @@
         <v>0.29253128431407999</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A62" s="31"/>
       <c r="B62" s="31" t="s">
         <v>178</v>
@@ -10648,7 +10641,7 @@
         <v>4.8755214052346667E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
         <v>179</v>
       </c>
@@ -10737,7 +10730,7 @@
         <v>7.7316749378532367E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
       <c r="B64" s="31" t="s">
         <v>181</v>
@@ -10824,7 +10817,7 @@
         <v>0.49285227418620653</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
         <v>182</v>
       </c>
@@ -10913,7 +10906,7 @@
         <v>4.1049285439853662E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="31"/>
       <c r="B66" s="31" t="s">
         <v>184</v>
@@ -11000,7 +10993,7 @@
         <v>0.16098313140959611</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="31"/>
       <c r="B67" s="31" t="s">
         <v>185</v>
@@ -11087,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="31"/>
       <c r="B68" s="31" t="s">
         <v>186</v>
@@ -11174,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="36"/>
       <c r="B69" s="37" t="s">
         <v>188</v>
@@ -11261,7 +11254,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="31"/>
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
@@ -11292,7 +11285,7 @@
       <c r="AB70" s="31"/>
       <c r="AC70" s="31"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -11323,7 +11316,7 @@
       <c r="AB71" s="31"/>
       <c r="AC71" s="31"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
@@ -11354,7 +11347,7 @@
       <c r="AB72" s="31"/>
       <c r="AC72" s="31"/>
     </row>
-    <row r="73" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="30" t="s">
         <v>196</v>
       </c>
@@ -11387,7 +11380,7 @@
       <c r="AB73" s="31"/>
       <c r="AC73" s="31"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
         <v>174</v>
       </c>
@@ -11476,7 +11469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
         <v>176</v>
       </c>
@@ -11565,7 +11558,7 @@
         <v>0.29253128431407999</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="31"/>
       <c r="B76" s="31" t="s">
         <v>178</v>
@@ -11652,7 +11645,7 @@
         <v>4.8755214052346667E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="31" t="s">
         <v>179</v>
       </c>
@@ -11741,7 +11734,7 @@
         <v>7.7316749378532367E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="31"/>
       <c r="B78" s="31" t="s">
         <v>181</v>
@@ -11828,7 +11821,7 @@
         <v>0.49285227418620653</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="31" t="s">
         <v>182</v>
       </c>
@@ -11917,7 +11910,7 @@
         <v>4.1049285439853662E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="31"/>
       <c r="B80" s="31" t="s">
         <v>184</v>
@@ -12004,7 +11997,7 @@
         <v>0.16098313140959611</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="31"/>
       <c r="B81" s="31" t="s">
         <v>185</v>
@@ -12091,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="31"/>
       <c r="B82" s="31" t="s">
         <v>186</v>
@@ -12178,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="36"/>
       <c r="B83" s="37" t="s">
         <v>188</v>
@@ -12265,7 +12258,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="31"/>
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
@@ -12296,7 +12289,7 @@
       <c r="AB84" s="31"/>
       <c r="AC84" s="31"/>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="C85" s="31"/>
@@ -12327,7 +12320,7 @@
       <c r="AB85" s="31"/>
       <c r="AC85" s="31"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
@@ -12358,7 +12351,7 @@
       <c r="AB86" s="31"/>
       <c r="AC86" s="31"/>
     </row>
-    <row r="87" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="30" t="s">
         <v>199</v>
       </c>
@@ -12391,7 +12384,7 @@
       <c r="AB87" s="31"/>
       <c r="AC87" s="31"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="32" t="s">
         <v>174</v>
       </c>
@@ -12480,7 +12473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="31" t="s">
         <v>176</v>
       </c>
@@ -12569,7 +12562,7 @@
         <v>0.29253128431407999</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="31"/>
       <c r="B90" s="31" t="s">
         <v>178</v>
@@ -12656,7 +12649,7 @@
         <v>4.8755214052346667E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="31" t="s">
         <v>179</v>
       </c>
@@ -12745,7 +12738,7 @@
         <v>7.7316749378532367E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="31"/>
       <c r="B92" s="31" t="s">
         <v>181</v>
@@ -12832,7 +12825,7 @@
         <v>0.49285227418620653</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
         <v>182</v>
       </c>
@@ -12921,7 +12914,7 @@
         <v>4.1049285439853662E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94" s="31"/>
       <c r="B94" s="31" t="s">
         <v>184</v>
@@ -13008,7 +13001,7 @@
         <v>0.16098313140959611</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" s="31"/>
       <c r="B95" s="31" t="s">
         <v>185</v>
@@ -13095,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96" s="31"/>
       <c r="B96" s="31" t="s">
         <v>186</v>
@@ -13182,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" s="36"/>
       <c r="B97" s="37" t="s">
         <v>188</v>
@@ -13269,7 +13262,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109" s="31"/>
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
@@ -13300,7 +13293,7 @@
       <c r="AB109" s="31"/>
       <c r="AC109" s="31"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110" s="31"/>
       <c r="B110" s="31"/>
       <c r="C110" s="31"/>
@@ -13331,7 +13324,7 @@
       <c r="AB110" s="31"/>
       <c r="AC110" s="31"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111" s="31"/>
       <c r="B111" s="31"/>
       <c r="C111" s="31"/>
@@ -13377,23 +13370,23 @@
       <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="29" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="40" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="29" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.4">
       <c r="C3" s="42" t="s">
         <v>195</v>
       </c>
@@ -13402,22 +13395,22 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
     </row>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -13460,7 +13453,7 @@
       <c r="AN9" s="43"/>
       <c r="AO9" s="43"/>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
@@ -13606,7 +13599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C11" s="43" t="s">
         <v>205</v>
       </c>
@@ -13747,7 +13740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
       <c r="E12" s="43" t="str">
@@ -13883,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
       <c r="E13" s="43" t="str">
@@ -14019,7 +14012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
       <c r="E14" s="43" t="str">
@@ -14155,7 +14148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
@@ -14202,7 +14195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C16" s="43" t="s">
         <v>50</v>
       </c>
@@ -14339,7 +14332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E17" s="43" t="str">
         <f>E16</f>
         <v>T-MOT*</v>
@@ -14469,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E18" s="43" t="str">
         <f t="shared" ref="E18:E19" si="12">E17</f>
         <v>T-MOT*</v>
@@ -14599,7 +14592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E19" s="43" t="str">
         <f t="shared" si="12"/>
         <v>T-MOT*</v>
@@ -14729,7 +14722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J20" s="43">
         <v>0</v>
       </c>
@@ -14767,7 +14760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C21" s="43" t="s">
         <v>51</v>
       </c>
@@ -14908,7 +14901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C22" s="43"/>
       <c r="D22" s="43"/>
       <c r="E22" s="43" t="str">
@@ -15044,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43" t="str">
@@ -15180,7 +15173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
       <c r="E24" s="43" t="str">
@@ -15316,7 +15309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
       <c r="E25" s="43"/>
@@ -15363,7 +15356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="43" t="s">
         <v>52</v>
       </c>
@@ -15500,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E27" s="43" t="str">
         <f>E26</f>
         <v>T-TAX*</v>
@@ -15630,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E28" s="43" t="str">
         <f t="shared" ref="E28:E29" si="28">E27</f>
         <v>T-TAX*</v>
@@ -15760,7 +15753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E29" s="43" t="str">
         <f t="shared" si="28"/>
         <v>T-TAX*</v>
@@ -15890,7 +15883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J30" s="43">
         <v>0</v>
       </c>
@@ -15928,7 +15921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="43" t="s">
         <v>53</v>
       </c>
@@ -16065,7 +16058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E32" s="43" t="str">
         <f>E31</f>
         <v>T-BUS*</v>
@@ -16195,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E33" s="43" t="str">
         <f t="shared" ref="E33:E34" si="35">E32</f>
         <v>T-BUS*</v>
@@ -16325,7 +16318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E34" s="43" t="str">
         <f t="shared" si="35"/>
         <v>T-BUS*</v>
@@ -16455,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J35" s="43">
         <v>0</v>
       </c>
@@ -16493,7 +16486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="43" t="s">
         <v>189</v>
       </c>
@@ -16630,7 +16623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E37" s="43" t="str">
         <f>E36</f>
         <v>T-LPT*</v>
@@ -16760,7 +16753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E38" s="43" t="str">
         <f t="shared" ref="E38:E39" si="42">E37</f>
         <v>T-LPT*</v>
@@ -16890,7 +16883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E39" s="43" t="str">
         <f t="shared" si="42"/>
         <v>T-LPT*</v>
@@ -17020,7 +17013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -17067,7 +17060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="9" t="s">
         <v>206</v>
       </c>
@@ -17204,7 +17197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E42" s="43" t="str">
         <f>E41</f>
         <v>T-HPT*</v>
@@ -17334,7 +17327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E43" s="43" t="str">
         <f t="shared" ref="E43:E44" si="49">E42</f>
         <v>T-HPT*</v>
@@ -17464,7 +17457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E44" s="43" t="str">
         <f t="shared" si="49"/>
         <v>T-HPT*</v>
@@ -17594,7 +17587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -17641,10 +17634,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M47" s="43" t="s">
         <v>190</v>
       </c>
@@ -17757,7 +17750,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="48" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="N48" s="40">
         <f t="shared" ref="N48:AN48" si="54">SUM(N12,N17,N22,N27,N32,N37,N42)</f>
         <v>1.0023</v>
@@ -17867,7 +17860,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="49" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="N49" s="40">
         <f t="shared" ref="N49:AN49" si="55">SUM(N13,N18,N23,N28,N33,N38,N43)</f>
         <v>1</v>
@@ -17977,7 +17970,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="50" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
       <c r="N50" s="40">
         <f t="shared" ref="N50:AN50" si="56">SUM(N14,N19,N24,N29,N34,N39,N44)</f>
@@ -18088,7 +18081,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="I51" s="2"/>
@@ -18114,7 +18107,7 @@
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="I52" s="2"/>
@@ -18140,7 +18133,7 @@
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="I53" s="2"/>
@@ -18166,7 +18159,7 @@
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="I54" s="2"/>
@@ -18192,7 +18185,7 @@
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -18224,7 +18217,7 @@
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -18256,7 +18249,7 @@
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
     </row>
-    <row r="57" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="29" t="s">
         <v>187</v>
       </c>
@@ -18290,7 +18283,7 @@
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -18322,7 +18315,7 @@
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
     </row>
-    <row r="59" spans="1:40" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" s="43" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>203</v>
       </c>
@@ -18355,7 +18348,7 @@
       <c r="AB59" s="31"/>
       <c r="AC59" s="31"/>
     </row>
-    <row r="60" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
         <v>174</v>
       </c>
@@ -18444,7 +18437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
         <v>176</v>
       </c>
@@ -18533,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31"/>
       <c r="B62" s="31" t="s">
         <v>178</v>
@@ -18620,7 +18613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
         <v>179</v>
       </c>
@@ -18709,7 +18702,7 @@
         <v>1.9708873200458749E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
       <c r="B64" s="31" t="s">
         <v>181</v>
@@ -18796,7 +18789,7 @@
         <v>0.7484312106638259</v>
       </c>
     </row>
-    <row r="65" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
         <v>182</v>
       </c>
@@ -18885,7 +18878,7 @@
         <v>5.1335741680296381E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="31"/>
       <c r="B66" s="31" t="s">
         <v>184</v>
@@ -18972,7 +18965,7 @@
         <v>0.24446432784809863</v>
       </c>
     </row>
-    <row r="67" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="31"/>
       <c r="B67" s="31" t="s">
         <v>185</v>
@@ -19059,7 +19052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="31"/>
       <c r="B68" s="31" t="s">
         <v>186</v>
@@ -19146,7 +19139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="36"/>
       <c r="B69" s="37" t="s">
         <v>188</v>
@@ -19233,7 +19226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="31"/>
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
@@ -19265,7 +19258,7 @@
       <c r="AC70" s="31"/>
       <c r="AD70" s="2"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -19297,7 +19290,7 @@
       <c r="AC71" s="31"/>
       <c r="AD71" s="2"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
@@ -19329,7 +19322,7 @@
       <c r="AC72" s="31"/>
       <c r="AD72" s="2"/>
     </row>
-    <row r="73" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="30" t="s">
         <v>197</v>
       </c>
@@ -19363,7 +19356,7 @@
       <c r="AC73" s="31"/>
       <c r="AD73" s="2"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
         <v>174</v>
       </c>
@@ -19453,7 +19446,7 @@
       </c>
       <c r="AD74" s="2"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
         <v>176</v>
       </c>
@@ -19543,7 +19536,7 @@
       </c>
       <c r="AD75" s="2"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" s="31"/>
       <c r="B76" s="31" t="s">
         <v>178</v>
@@ -19631,7 +19624,7 @@
       </c>
       <c r="AD76" s="2"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" s="31" t="s">
         <v>179</v>
       </c>
@@ -19721,7 +19714,7 @@
       </c>
       <c r="AD77" s="2"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" s="31"/>
       <c r="B78" s="31" t="s">
         <v>181</v>
@@ -19809,7 +19802,7 @@
       </c>
       <c r="AD78" s="2"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" s="31" t="s">
         <v>182</v>
       </c>
@@ -19899,7 +19892,7 @@
       </c>
       <c r="AD79" s="2"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" s="31"/>
       <c r="B80" s="31" t="s">
         <v>184</v>
@@ -19987,7 +19980,7 @@
       </c>
       <c r="AD80" s="2"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" s="31"/>
       <c r="B81" s="31" t="s">
         <v>185</v>
@@ -20075,7 +20068,7 @@
       </c>
       <c r="AD81" s="2"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" s="31"/>
       <c r="B82" s="31" t="s">
         <v>186</v>
@@ -20163,7 +20156,7 @@
       </c>
       <c r="AD82" s="2"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" s="36"/>
       <c r="B83" s="37" t="s">
         <v>188</v>
@@ -20251,7 +20244,7 @@
       </c>
       <c r="AD83" s="2"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" s="31"/>
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
@@ -20283,7 +20276,7 @@
       <c r="AC84" s="31"/>
       <c r="AD84" s="2"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="C85" s="31"/>
@@ -20315,7 +20308,7 @@
       <c r="AC85" s="31"/>
       <c r="AD85" s="2"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
@@ -20347,7 +20340,7 @@
       <c r="AC86" s="31"/>
       <c r="AD86" s="2"/>
     </row>
-    <row r="87" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="30" t="s">
         <v>200</v>
       </c>
@@ -20381,7 +20374,7 @@
       <c r="AC87" s="31"/>
       <c r="AD87" s="2"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" s="32" t="s">
         <v>174</v>
       </c>
@@ -20471,7 +20464,7 @@
       </c>
       <c r="AD88" s="2"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" s="31" t="s">
         <v>176</v>
       </c>
@@ -20561,7 +20554,7 @@
       </c>
       <c r="AD89" s="2"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" s="31"/>
       <c r="B90" s="31" t="s">
         <v>178</v>
@@ -20649,7 +20642,7 @@
       </c>
       <c r="AD90" s="2"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" s="31" t="s">
         <v>179</v>
       </c>
@@ -20739,7 +20732,7 @@
       </c>
       <c r="AD91" s="2"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" s="31"/>
       <c r="B92" s="31" t="s">
         <v>181</v>
@@ -20827,7 +20820,7 @@
       </c>
       <c r="AD92" s="2"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
         <v>182</v>
       </c>
@@ -20917,7 +20910,7 @@
       </c>
       <c r="AD93" s="2"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" s="31"/>
       <c r="B94" s="31" t="s">
         <v>184</v>
@@ -21005,7 +20998,7 @@
       </c>
       <c r="AD94" s="2"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" s="31"/>
       <c r="B95" s="31" t="s">
         <v>185</v>
@@ -21093,7 +21086,7 @@
       </c>
       <c r="AD95" s="2"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" s="31"/>
       <c r="B96" s="31" t="s">
         <v>186</v>
@@ -21181,7 +21174,7 @@
       </c>
       <c r="AD96" s="2"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" s="36"/>
       <c r="B97" s="37" t="s">
         <v>188</v>
@@ -21269,7 +21262,7 @@
       </c>
       <c r="AD97" s="2"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -21301,7 +21294,7 @@
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -21348,22 +21341,22 @@
       <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="43" customWidth="1"/>
-    <col min="5" max="13" width="10.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="43" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="29" width="10.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="30" max="40" width="10.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="8.7109375" style="43"/>
+    <col min="1" max="1" width="20.109375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="43" customWidth="1"/>
+    <col min="5" max="13" width="10.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="43" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="29" width="10.88671875" style="43" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="10.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.6640625" style="43"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.4">
       <c r="C3" s="42" t="s">
         <v>195</v>
       </c>
@@ -21372,27 +21365,27 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
     </row>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B6" s="43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
       <c r="K9" s="43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
@@ -21538,7 +21531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C11" s="43" t="s">
         <v>54</v>
       </c>
@@ -21675,7 +21668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
       <c r="E12" s="43" t="str">
         <f>E11</f>
         <v>T-CAR*</v>
@@ -21805,7 +21798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
       <c r="E13" s="43" t="str">
         <f t="shared" ref="E13:E14" si="3">E12</f>
         <v>T-CAR*</v>
@@ -21935,7 +21928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
       <c r="E14" s="43" t="str">
         <f t="shared" si="3"/>
         <v>T-CAR*</v>
@@ -22065,7 +22058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
       <c r="J15" s="43">
         <v>0</v>
       </c>
@@ -22103,7 +22096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C16" s="43" t="s">
         <v>55</v>
       </c>
@@ -22240,7 +22233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E17" s="43" t="str">
         <f>E16</f>
         <v>T-TAX*</v>
@@ -22370,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E18" s="43" t="str">
         <f t="shared" ref="E18:E19" si="10">E17</f>
         <v>T-TAX*</v>
@@ -22500,7 +22493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E19" s="43" t="str">
         <f t="shared" si="10"/>
         <v>T-TAX*</v>
@@ -22630,7 +22623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J20" s="43">
         <v>0</v>
       </c>
@@ -22668,7 +22661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C21" s="43" t="s">
         <v>56</v>
       </c>
@@ -22805,7 +22798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E22" s="43" t="str">
         <f>E21</f>
         <v>T-BUS*</v>
@@ -22935,7 +22928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E23" s="43" t="str">
         <f t="shared" ref="E23:E24" si="17">E22</f>
         <v>T-BUS*</v>
@@ -23065,7 +23058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E24" s="43" t="str">
         <f t="shared" si="17"/>
         <v>T-BUS*</v>
@@ -23195,7 +23188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J25" s="43">
         <v>0</v>
       </c>
@@ -23233,7 +23226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C26" s="9" t="s">
         <v>57</v>
       </c>
@@ -23371,7 +23364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E27" s="43" t="str">
         <f>E26</f>
         <v>T-HPT*</v>
@@ -23501,7 +23494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E28" s="43" t="str">
         <f t="shared" ref="E28:E29" si="24">E27</f>
         <v>T-HPT*</v>
@@ -23631,7 +23624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E29" s="43" t="str">
         <f t="shared" si="24"/>
         <v>T-HPT*</v>
@@ -23761,7 +23754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -23808,10 +23801,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:41" x14ac:dyDescent="0.3">
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:41" x14ac:dyDescent="0.3">
       <c r="M32" s="43" t="s">
         <v>190</v>
       </c>
@@ -23924,7 +23917,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="N33" s="40">
         <f t="shared" ref="N33:AN33" si="29">SUM(,N12,N17,N22,N27)</f>
         <v>1.0030000000000001</v>
@@ -24034,7 +24027,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="N34" s="40">
         <f t="shared" ref="N34:AN34" si="30">SUM(,N13,N18,N23,N28)</f>
         <v>1.0049999999999999</v>
@@ -24144,7 +24137,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
       <c r="N35" s="40">
         <f t="shared" ref="N35:AN35" si="31">SUM(,N14,N19,N24,N29)</f>
@@ -24255,10 +24248,10 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
     </row>
-    <row r="42" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="29" t="s">
         <v>187</v>
       </c>
@@ -24267,7 +24260,7 @@
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
     </row>
-    <row r="44" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
         <v>204</v>
       </c>
@@ -24300,7 +24293,7 @@
       <c r="AB44" s="31"/>
       <c r="AC44" s="31"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
         <v>174</v>
       </c>
@@ -24389,7 +24382,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
         <v>176</v>
       </c>
@@ -24478,7 +24471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A47" s="31"/>
       <c r="B47" s="31" t="s">
         <v>178</v>
@@ -24565,7 +24558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>179</v>
       </c>
@@ -24654,7 +24647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="31"/>
       <c r="B49" s="31" t="s">
         <v>181</v>
@@ -24741,7 +24734,7 @@
         <v>0.64231184378282558</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>182</v>
       </c>
@@ -24830,7 +24823,7 @@
         <v>2.7483693665086213E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="31"/>
       <c r="B51" s="31" t="s">
         <v>184</v>
@@ -24917,7 +24910,7 @@
         <v>0.28624951607603277</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="31"/>
       <c r="B52" s="31" t="s">
         <v>185</v>
@@ -25004,7 +24997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="31"/>
       <c r="B53" s="31" t="s">
         <v>186</v>
@@ -25091,7 +25084,7 @@
         <v>6.8690270774633036E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="36"/>
       <c r="B54" s="37" t="s">
         <v>188</v>
@@ -25178,7 +25171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
@@ -25209,7 +25202,7 @@
       <c r="AB55" s="31"/>
       <c r="AC55" s="31"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
@@ -25240,7 +25233,7 @@
       <c r="AB56" s="31"/>
       <c r="AC56" s="31"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="31"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
@@ -25271,7 +25264,7 @@
       <c r="AB57" s="31"/>
       <c r="AC57" s="31"/>
     </row>
-    <row r="58" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="30" t="s">
         <v>198</v>
       </c>
@@ -25304,7 +25297,7 @@
       <c r="AB58" s="31"/>
       <c r="AC58" s="31"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
         <v>174</v>
       </c>
@@ -25393,7 +25386,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
         <v>176</v>
       </c>
@@ -25482,7 +25475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="31"/>
       <c r="B61" s="31" t="s">
         <v>178</v>
@@ -25569,7 +25562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
         <v>179</v>
       </c>
@@ -25658,7 +25651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="31"/>
       <c r="B63" s="31" t="s">
         <v>181</v>
@@ -25745,7 +25738,7 @@
         <v>0.64231184378282558</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="31" t="s">
         <v>182</v>
       </c>
@@ -25834,7 +25827,7 @@
         <v>2.7483693665086213E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="31"/>
       <c r="B65" s="31" t="s">
         <v>184</v>
@@ -25921,7 +25914,7 @@
         <v>0.28624951607603277</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="31"/>
       <c r="B66" s="31" t="s">
         <v>185</v>
@@ -26008,7 +26001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="31"/>
       <c r="B67" s="31" t="s">
         <v>186</v>
@@ -26095,7 +26088,7 @@
         <v>6.8690270774633036E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="36"/>
       <c r="B68" s="37" t="s">
         <v>188</v>
@@ -26182,7 +26175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="31"/>
       <c r="B69" s="31"/>
       <c r="C69" s="31"/>
@@ -26213,7 +26206,7 @@
       <c r="AB69" s="31"/>
       <c r="AC69" s="31"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="31"/>
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
@@ -26244,7 +26237,7 @@
       <c r="AB70" s="31"/>
       <c r="AC70" s="31"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -26275,7 +26268,7 @@
       <c r="AB71" s="31"/>
       <c r="AC71" s="31"/>
     </row>
-    <row r="72" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="30" t="s">
         <v>201</v>
       </c>
@@ -26308,7 +26301,7 @@
       <c r="AB72" s="31"/>
       <c r="AC72" s="31"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
         <v>174</v>
       </c>
@@ -26397,7 +26390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="31" t="s">
         <v>176</v>
       </c>
@@ -26486,7 +26479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="31"/>
       <c r="B75" s="31" t="s">
         <v>178</v>
@@ -26573,7 +26566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="31" t="s">
         <v>179</v>
       </c>
@@ -26662,7 +26655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="31"/>
       <c r="B77" s="31" t="s">
         <v>181</v>
@@ -26749,7 +26742,7 @@
         <v>0.64231184378282558</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="31" t="s">
         <v>182</v>
       </c>
@@ -26838,7 +26831,7 @@
         <v>2.7483693665086213E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="31"/>
       <c r="B79" s="31" t="s">
         <v>184</v>
@@ -26925,7 +26918,7 @@
         <v>0.28624951607603277</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="31"/>
       <c r="B80" s="31" t="s">
         <v>185</v>
@@ -27012,7 +27005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="31"/>
       <c r="B81" s="31" t="s">
         <v>186</v>
@@ -27099,7 +27092,7 @@
         <v>6.8690270774633036E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="36"/>
       <c r="B82" s="37" t="s">
         <v>188</v>
@@ -27201,17 +27194,17 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="33" width="9.140625" style="43"/>
-    <col min="34" max="34" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="33" width="9.109375" style="43"/>
+    <col min="34" max="34" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B2" s="50" t="s">
         <v>207</v>
       </c>
@@ -27223,7 +27216,7 @@
       <c r="AH2" s="43"/>
       <c r="AI2" s="43"/>
     </row>
-    <row r="3" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="51" t="s">
         <v>208</v>
       </c>
@@ -27355,7 +27348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -27477,7 +27470,7 @@
         <v>TRAPM</v>
       </c>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:35" x14ac:dyDescent="0.3">
       <c r="F5" s="43" t="s">
         <v>209</v>
       </c>
@@ -27609,15 +27602,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="23" t="s">
         <v>95</v>
       </c>
@@ -27627,7 +27620,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>96</v>
       </c>
@@ -27639,7 +27632,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>98</v>
       </c>
@@ -27649,7 +27642,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>99</v>
       </c>
@@ -27659,7 +27652,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>100</v>
       </c>
@@ -27671,7 +27664,7 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
         <v>102</v>
       </c>
@@ -27683,7 +27676,7 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>104</v>
       </c>
@@ -27693,7 +27686,7 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
         <v>105</v>
       </c>
@@ -27705,7 +27698,7 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>107</v>
       </c>
@@ -27715,7 +27708,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
         <v>108</v>
       </c>
@@ -27727,7 +27720,7 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>110</v>
       </c>
@@ -27739,7 +27732,7 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
         <v>112</v>
       </c>
@@ -27751,7 +27744,7 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
         <v>114</v>
       </c>
@@ -27763,7 +27756,7 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
         <v>116</v>
       </c>
@@ -27775,7 +27768,7 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>118</v>
       </c>
@@ -27787,7 +27780,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
         <v>120</v>
       </c>
@@ -27799,7 +27792,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
         <v>122</v>
       </c>
@@ -27811,7 +27804,7 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
         <v>124</v>
       </c>
@@ -27823,7 +27816,7 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
         <v>126</v>
       </c>
@@ -27833,7 +27826,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
         <v>127</v>
       </c>
@@ -27845,7 +27838,7 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="20" t="s">
         <v>129</v>
       </c>
@@ -27857,7 +27850,7 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="20" t="s">
         <v>131</v>
       </c>
@@ -27869,7 +27862,7 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
         <v>133</v>
       </c>
@@ -27879,7 +27872,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
         <v>134</v>
       </c>
@@ -27891,7 +27884,7 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
         <v>136</v>
       </c>
@@ -27901,7 +27894,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="20" t="s">
         <v>137</v>
       </c>
@@ -27913,7 +27906,7 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="20" t="s">
         <v>139</v>
       </c>
@@ -27925,7 +27918,7 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="20" t="s">
         <v>141</v>
       </c>
@@ -27937,7 +27930,7 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
     </row>
-    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="21" t="s">
         <v>143</v>
       </c>
@@ -27947,7 +27940,7 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
         <v>144</v>
       </c>
@@ -27957,7 +27950,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
         <v>145</v>
       </c>
@@ -27969,7 +27962,7 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
         <v>191</v>
       </c>
@@ -27981,7 +27974,7 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="20" t="s">
         <v>193</v>
       </c>
@@ -27993,7 +27986,7 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="20" t="s">
         <v>147</v>
       </c>
@@ -28005,7 +27998,7 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
-    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="20" t="s">
         <v>149</v>
       </c>
@@ -28017,7 +28010,7 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
     </row>
-    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="21" t="s">
         <v>151</v>
       </c>
@@ -28027,7 +28020,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="20" t="s">
         <v>152</v>
       </c>
@@ -28039,7 +28032,7 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="20" t="s">
         <v>154</v>
       </c>
@@ -28051,7 +28044,7 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
     </row>
-    <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="20" t="s">
         <v>156</v>
       </c>
@@ -28063,7 +28056,7 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
     </row>
-    <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="21" t="s">
         <v>158</v>
       </c>
@@ -28073,7 +28066,7 @@
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="20" t="s">
         <v>159</v>
       </c>
@@ -28085,7 +28078,7 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
     </row>
-    <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="22" t="s">
         <v>161</v>
       </c>
@@ -28097,7 +28090,7 @@
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
@@ -28105,7 +28098,7 @@
       <c r="F44" s="43"/>
       <c r="G44" s="43"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
       <c r="D45" s="43"/>
@@ -28113,7 +28106,7 @@
       <c r="F45" s="43"/>
       <c r="G45" s="43"/>
     </row>
-    <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="25" t="s">
         <v>163</v>
       </c>
@@ -28129,7 +28122,7 @@
       <c r="F46" s="43"/>
       <c r="G46" s="43"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="43" t="s">
         <v>167</v>
       </c>
@@ -28145,7 +28138,7 @@
       <c r="F47" s="43"/>
       <c r="G47" s="43"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="43" t="s">
         <v>170</v>
       </c>
@@ -28161,7 +28154,7 @@
       <c r="F48" s="43"/>
       <c r="G48" s="43"/>
     </row>
-    <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="24" t="s">
         <v>172</v>
       </c>
@@ -28177,7 +28170,7 @@
       <c r="F49" s="43"/>
       <c r="G49" s="43"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
       <c r="D50" s="43"/>
@@ -28185,7 +28178,7 @@
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
       <c r="D51" s="43"/>
@@ -28193,7 +28186,7 @@
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
     </row>
-    <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="28" t="s">
         <v>174</v>
       </c>
@@ -28203,7 +28196,7 @@
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
     </row>
-    <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="25" t="s">
         <v>174</v>
       </c>
@@ -28215,7 +28208,7 @@
       <c r="F53" s="43"/>
       <c r="G53" s="43"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="43" t="s">
         <v>176</v>
       </c>
@@ -28227,7 +28220,7 @@
       <c r="F54" s="43"/>
       <c r="G54" s="43"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="43"/>
       <c r="C55" s="43" t="s">
         <v>178</v>
@@ -28237,7 +28230,7 @@
       <c r="F55" s="43"/>
       <c r="G55" s="43"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="43" t="s">
         <v>179</v>
       </c>
@@ -28249,7 +28242,7 @@
       <c r="F56" s="43"/>
       <c r="G56" s="43"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="43"/>
       <c r="C57" s="43" t="s">
         <v>181</v>
@@ -28259,7 +28252,7 @@
       <c r="F57" s="43"/>
       <c r="G57" s="43"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="43" t="s">
         <v>182</v>
       </c>
@@ -28271,7 +28264,7 @@
       <c r="F58" s="43"/>
       <c r="G58" s="43"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="43"/>
       <c r="C59" s="43" t="s">
         <v>184</v>
@@ -28281,7 +28274,7 @@
       <c r="F59" s="43"/>
       <c r="G59" s="43"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="43"/>
       <c r="C60" s="43" t="s">
         <v>185</v>
@@ -28291,7 +28284,7 @@
       <c r="F60" s="43"/>
       <c r="G60" s="43"/>
     </row>
-    <row r="61" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="24"/>
       <c r="C61" s="24" t="s">
         <v>186</v>

--- a/SuppXLS/Scen_TRA_P_ModalShares_LED.xlsx
+++ b/SuppXLS/Scen_TRA_P_ModalShares_LED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TIM\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C62718C-3C65-4E06-ACAB-0A10ADC1EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F4D5DA-9FC5-480B-9775-F63D1164359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="21" r:id="rId1"/>
@@ -836,19 +836,19 @@
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
   </si>
   <si>
-    <t>Scenario file</t>
-  </si>
-  <si>
-    <t>Transport (TRA)</t>
-  </si>
-  <si>
     <t>Vahid Aryanpur (UCC, vahid.aryanpur@ucc.ie)</t>
   </si>
   <si>
     <t xml:space="preserve">Olexandr Balyk ( MaREI, olexandr.balyk@ucc.ie) </t>
   </si>
   <si>
-    <t>Share of transport modes in passenger demand in low energy demand scenario</t>
+    <t>Share of transport modes in passenger demand in the LED scenario</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Transport sector (TRA)</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1424,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80035724-BC1F-433B-AA68-E8C78BA9CAA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A218948C-19BC-4758-8260-9C5B0F97F595}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1517,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738A5336-695C-4F97-8E25-F087C0E6C3E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1567,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75CE291-9766-4275-8D69-7773DDF6BC13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1617,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446F73B2-F0D8-44A0-9031-687B28974340}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1666,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEB59D6-E390-480F-B5BA-4989C61336A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -1726,7 +1726,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2100,25 +2100,25 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.6640625" style="43" customWidth="1"/>
-    <col min="5" max="6" width="14.109375" style="43" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="43" customWidth="1"/>
-    <col min="8" max="10" width="8.109375" style="43" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="43" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="43" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" style="43" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="43" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="43" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="43" customWidth="1"/>
     <col min="13" max="13" width="10" style="43" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="43" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="43" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="43"/>
+    <col min="14" max="14" width="11.42578125" style="43" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="43" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -2146,7 +2146,7 @@
       <c r="Y1" s="55"/>
       <c r="Z1" s="55"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
@@ -2174,7 +2174,7 @@
       <c r="Y2" s="55"/>
       <c r="Z2" s="55"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
@@ -2202,7 +2202,7 @@
       <c r="Y3" s="55"/>
       <c r="Z3" s="55"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
@@ -2230,7 +2230,7 @@
       <c r="Y4" s="55"/>
       <c r="Z4" s="55"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
@@ -2258,7 +2258,7 @@
       <c r="Y5" s="55"/>
       <c r="Z5" s="55"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
@@ -2286,7 +2286,7 @@
       <c r="Y6" s="55"/>
       <c r="Z6" s="55"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
@@ -2314,7 +2314,7 @@
       <c r="Y7" s="55"/>
       <c r="Z7" s="55"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
@@ -2342,7 +2342,7 @@
       <c r="Y8" s="55"/>
       <c r="Z8" s="55"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
@@ -2370,7 +2370,7 @@
       <c r="Y9" s="55"/>
       <c r="Z9" s="55"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
@@ -2398,7 +2398,7 @@
       <c r="Y10" s="55"/>
       <c r="Z10" s="55"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
@@ -2426,7 +2426,7 @@
       <c r="Y11" s="55"/>
       <c r="Z11" s="55"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
@@ -2454,7 +2454,7 @@
       <c r="Y12" s="55"/>
       <c r="Z12" s="55"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
@@ -2482,7 +2482,7 @@
       <c r="Y13" s="55"/>
       <c r="Z13" s="55"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -2510,7 +2510,7 @@
       <c r="Y14" s="55"/>
       <c r="Z14" s="55"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
@@ -2538,7 +2538,7 @@
       <c r="Y15" s="55"/>
       <c r="Z15" s="55"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>210</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="Y16" s="55"/>
       <c r="Z16" s="55"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
@@ -2596,7 +2596,7 @@
       <c r="Y17" s="55"/>
       <c r="Z17" s="55"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
@@ -2624,12 +2624,12 @@
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>211</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="69"/>
@@ -2656,12 +2656,12 @@
       <c r="Y19" s="55"/>
       <c r="Z19" s="55"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>212</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="69"/>
@@ -2688,12 +2688,12 @@
       <c r="Y20" s="55"/>
       <c r="Z20" s="55"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>213</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
@@ -2720,7 +2720,7 @@
       <c r="Y21" s="55"/>
       <c r="Z21" s="55"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
@@ -2748,12 +2748,12 @@
       <c r="Y22" s="55"/>
       <c r="Z22" s="55"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>214</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="69"/>
@@ -2780,10 +2780,10 @@
       <c r="Y23" s="55"/>
       <c r="Z23" s="55"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
       <c r="B24" s="69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
@@ -2810,7 +2810,7 @@
       <c r="Y24" s="55"/>
       <c r="Z24" s="55"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -2838,12 +2838,12 @@
       <c r="Y25" s="55"/>
       <c r="Z25" s="55"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
         <v>215</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
@@ -2870,10 +2870,10 @@
       <c r="Y26" s="55"/>
       <c r="Z26" s="55"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
       <c r="B27" s="69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
@@ -2900,7 +2900,7 @@
       <c r="Y27" s="55"/>
       <c r="Z27" s="55"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -2928,7 +2928,7 @@
       <c r="Y28" s="55"/>
       <c r="Z28" s="55"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>216</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="Y29" s="55"/>
       <c r="Z29" s="55"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
         <v>217</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="Y30" s="55"/>
       <c r="Z30" s="55"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>219</v>
       </c>
@@ -3024,7 +3024,7 @@
       <c r="Y31" s="55"/>
       <c r="Z31" s="55"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="67"/>
       <c r="B32" s="68" t="s">
         <v>221</v>
@@ -3054,7 +3054,7 @@
       <c r="Y32" s="55"/>
       <c r="Z32" s="55"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="54"/>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
@@ -3082,7 +3082,7 @@
       <c r="Y33" s="55"/>
       <c r="Z33" s="55"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="54"/>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
@@ -3110,7 +3110,7 @@
       <c r="Y34" s="55"/>
       <c r="Z34" s="55"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="54"/>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -3138,7 +3138,7 @@
       <c r="Y35" s="55"/>
       <c r="Z35" s="55"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="54"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
@@ -3166,7 +3166,7 @@
       <c r="Y36" s="55"/>
       <c r="Z36" s="55"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
@@ -3194,7 +3194,7 @@
       <c r="Y37" s="55"/>
       <c r="Z37" s="55"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="54"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
@@ -3222,7 +3222,7 @@
       <c r="Y38" s="55"/>
       <c r="Z38" s="55"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="54"/>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
@@ -3250,7 +3250,7 @@
       <c r="Y39" s="55"/>
       <c r="Z39" s="55"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="54"/>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -3278,7 +3278,7 @@
       <c r="Y40" s="55"/>
       <c r="Z40" s="55"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
@@ -3306,7 +3306,7 @@
       <c r="Y41" s="55"/>
       <c r="Z41" s="55"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="54"/>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -3334,7 +3334,7 @@
       <c r="Y42" s="55"/>
       <c r="Z42" s="55"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="55"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
@@ -3362,7 +3362,7 @@
       <c r="Y43" s="55"/>
       <c r="Z43" s="55"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -3390,7 +3390,7 @@
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="55"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -3418,7 +3418,7 @@
       <c r="Y45" s="55"/>
       <c r="Z45" s="55"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="55"/>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -3446,7 +3446,7 @@
       <c r="Y46" s="55"/>
       <c r="Z46" s="55"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="55"/>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
@@ -3474,7 +3474,7 @@
       <c r="Y47" s="55"/>
       <c r="Z47" s="55"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="55"/>
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
@@ -3502,7 +3502,7 @@
       <c r="Y48" s="55"/>
       <c r="Z48" s="55"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="55"/>
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
@@ -3530,7 +3530,7 @@
       <c r="Y49" s="55"/>
       <c r="Z49" s="55"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="55"/>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
@@ -3558,7 +3558,7 @@
       <c r="Y50" s="55"/>
       <c r="Z50" s="55"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
@@ -3586,7 +3586,7 @@
       <c r="Y51" s="55"/>
       <c r="Z51" s="55"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="55"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -3614,7 +3614,7 @@
       <c r="Y52" s="55"/>
       <c r="Z52" s="55"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="55"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -3642,7 +3642,7 @@
       <c r="Y53" s="55"/>
       <c r="Z53" s="55"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="55"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -3670,7 +3670,7 @@
       <c r="Y54" s="55"/>
       <c r="Z54" s="55"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="55"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -3698,7 +3698,7 @@
       <c r="Y55" s="55"/>
       <c r="Z55" s="55"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="55"/>
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
@@ -3726,7 +3726,7 @@
       <c r="Y56" s="55"/>
       <c r="Z56" s="55"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="55"/>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -3754,7 +3754,7 @@
       <c r="Y57" s="55"/>
       <c r="Z57" s="55"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="55"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55"/>
@@ -3782,7 +3782,7 @@
       <c r="Y58" s="55"/>
       <c r="Z58" s="55"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="55"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55"/>
@@ -3810,7 +3810,7 @@
       <c r="Y59" s="55"/>
       <c r="Z59" s="55"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="55"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55"/>
@@ -3838,7 +3838,7 @@
       <c r="Y60" s="55"/>
       <c r="Z60" s="55"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="55"/>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -3866,7 +3866,7 @@
       <c r="Y61" s="55"/>
       <c r="Z61" s="55"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="55"/>
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
@@ -3894,7 +3894,7 @@
       <c r="Y62" s="55"/>
       <c r="Z62" s="55"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="55"/>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -3922,7 +3922,7 @@
       <c r="Y63" s="55"/>
       <c r="Z63" s="55"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="55"/>
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
@@ -3950,7 +3950,7 @@
       <c r="Y64" s="55"/>
       <c r="Z64" s="55"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
@@ -3978,7 +3978,7 @@
       <c r="Y65" s="55"/>
       <c r="Z65" s="55"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="55"/>
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
@@ -4006,7 +4006,7 @@
       <c r="Y66" s="55"/>
       <c r="Z66" s="55"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
@@ -4034,7 +4034,7 @@
       <c r="Y67" s="55"/>
       <c r="Z67" s="55"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="55"/>
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
@@ -4062,7 +4062,7 @@
       <c r="Y68" s="55"/>
       <c r="Z68" s="55"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
@@ -4090,7 +4090,7 @@
       <c r="Y69" s="55"/>
       <c r="Z69" s="55"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="55"/>
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
@@ -4118,7 +4118,7 @@
       <c r="Y70" s="55"/>
       <c r="Z70" s="55"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
@@ -4146,7 +4146,7 @@
       <c r="Y71" s="55"/>
       <c r="Z71" s="55"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="55"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -4174,7 +4174,7 @@
       <c r="Y72" s="55"/>
       <c r="Z72" s="55"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
@@ -4202,7 +4202,7 @@
       <c r="Y73" s="55"/>
       <c r="Z73" s="55"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="55"/>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -4230,7 +4230,7 @@
       <c r="Y74" s="55"/>
       <c r="Z74" s="55"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
@@ -4258,7 +4258,7 @@
       <c r="Y75" s="55"/>
       <c r="Z75" s="55"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="55"/>
       <c r="B76" s="55"/>
       <c r="C76" s="55"/>
@@ -4286,7 +4286,7 @@
       <c r="Y76" s="55"/>
       <c r="Z76" s="55"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="55"/>
       <c r="B77" s="55"/>
       <c r="C77" s="55"/>
@@ -4314,7 +4314,7 @@
       <c r="Y77" s="55"/>
       <c r="Z77" s="55"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="55"/>
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
@@ -4342,7 +4342,7 @@
       <c r="Y78" s="55"/>
       <c r="Z78" s="55"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="55"/>
       <c r="B79" s="55"/>
       <c r="C79" s="55"/>
@@ -4370,7 +4370,7 @@
       <c r="Y79" s="55"/>
       <c r="Z79" s="55"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="55"/>
       <c r="B80" s="55"/>
       <c r="C80" s="55"/>
@@ -4398,7 +4398,7 @@
       <c r="Y80" s="55"/>
       <c r="Z80" s="55"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="55"/>
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
@@ -4426,7 +4426,7 @@
       <c r="Y81" s="55"/>
       <c r="Z81" s="55"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="55"/>
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
@@ -4454,7 +4454,7 @@
       <c r="Y82" s="55"/>
       <c r="Z82" s="55"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="55"/>
       <c r="B83" s="55"/>
       <c r="C83" s="55"/>
@@ -4482,7 +4482,7 @@
       <c r="Y83" s="55"/>
       <c r="Z83" s="55"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="55"/>
       <c r="B84" s="55"/>
       <c r="C84" s="55"/>
@@ -4510,7 +4510,7 @@
       <c r="Y84" s="55"/>
       <c r="Z84" s="55"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="55"/>
       <c r="B85" s="55"/>
       <c r="C85" s="55"/>
@@ -4538,7 +4538,7 @@
       <c r="Y85" s="55"/>
       <c r="Z85" s="55"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="55"/>
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
@@ -4566,7 +4566,7 @@
       <c r="Y86" s="55"/>
       <c r="Z86" s="55"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="55"/>
       <c r="B87" s="55"/>
       <c r="C87" s="55"/>
@@ -4594,7 +4594,7 @@
       <c r="Y87" s="55"/>
       <c r="Z87" s="55"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="55"/>
       <c r="B88" s="55"/>
       <c r="C88" s="55"/>
@@ -4622,7 +4622,7 @@
       <c r="Y88" s="55"/>
       <c r="Z88" s="55"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="55"/>
       <c r="B89" s="55"/>
       <c r="C89" s="55"/>
@@ -4650,7 +4650,7 @@
       <c r="Y89" s="55"/>
       <c r="Z89" s="55"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="55"/>
       <c r="B90" s="55"/>
       <c r="C90" s="55"/>
@@ -4678,7 +4678,7 @@
       <c r="Y90" s="55"/>
       <c r="Z90" s="55"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="55"/>
       <c r="B91" s="55"/>
       <c r="C91" s="55"/>
@@ -4706,7 +4706,7 @@
       <c r="Y91" s="55"/>
       <c r="Z91" s="55"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="55"/>
       <c r="B92" s="55"/>
       <c r="C92" s="55"/>
@@ -4734,7 +4734,7 @@
       <c r="Y92" s="55"/>
       <c r="Z92" s="55"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="55"/>
       <c r="B93" s="55"/>
       <c r="C93" s="55"/>
@@ -4762,7 +4762,7 @@
       <c r="Y93" s="55"/>
       <c r="Z93" s="55"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="55"/>
       <c r="B94" s="55"/>
       <c r="C94" s="55"/>
@@ -4790,7 +4790,7 @@
       <c r="Y94" s="55"/>
       <c r="Z94" s="55"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="55"/>
       <c r="B95" s="55"/>
       <c r="C95" s="55"/>
@@ -4818,7 +4818,7 @@
       <c r="Y95" s="55"/>
       <c r="Z95" s="55"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="55"/>
       <c r="B96" s="55"/>
       <c r="C96" s="55"/>
@@ -4846,7 +4846,7 @@
       <c r="Y96" s="55"/>
       <c r="Z96" s="55"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="55"/>
       <c r="B97" s="55"/>
       <c r="C97" s="55"/>
@@ -4874,7 +4874,7 @@
       <c r="Y97" s="55"/>
       <c r="Z97" s="55"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="55"/>
       <c r="B98" s="55"/>
       <c r="C98" s="55"/>
@@ -4902,7 +4902,7 @@
       <c r="Y98" s="55"/>
       <c r="Z98" s="55"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="55"/>
       <c r="B99" s="55"/>
       <c r="C99" s="55"/>
@@ -4961,40 +4961,40 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="2"/>
+    <col min="29" max="29" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3" s="11" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -5108,12 +5108,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>66</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>68</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>69</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>70</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>71</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>72</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>73</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>74</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>75</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>76</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>77</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>78</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>79</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>81</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>82</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>83</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>84</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>85</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>86</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>87</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>88</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>89</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>90</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>91</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>92</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>93</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>94</v>
       </c>
@@ -5704,7 +5704,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5728,24 +5728,24 @@
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="43" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="10.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" style="43" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="29" width="10.88671875" style="43" bestFit="1" customWidth="1"/>
-    <col min="30" max="40" width="10.44140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.109375" style="43"/>
+    <col min="1" max="1" width="20.140625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="10.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="43" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="29" width="10.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="10.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.35">
       <c r="C3" s="47" t="s">
         <v>195</v>
       </c>
@@ -5754,27 +5754,27 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
     </row>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B6" s="43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.25">
       <c r="K9" s="43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C11" s="43" t="s">
         <v>59</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.25">
       <c r="E12" s="43" t="str">
         <f>E11</f>
         <v>T-WLK_WLK</v>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.25">
       <c r="E13" s="43" t="str">
         <f t="shared" ref="E13:E14" si="3">E12</f>
         <v>T-WLK_WLK</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.25">
       <c r="E14" s="43" t="str">
         <f t="shared" si="3"/>
         <v>T-WLK_WLK</v>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.25">
       <c r="J15" s="43">
         <v>0</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>45</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E17" s="43" t="str">
         <f>E16</f>
         <v>T-CYC_CYC</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E18" s="43" t="str">
         <f t="shared" ref="E18:E19" si="10">E17</f>
         <v>T-CYC_CYC</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E19" s="43" t="str">
         <f t="shared" si="10"/>
         <v>T-CYC_CYC</v>
@@ -7012,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:41" x14ac:dyDescent="0.25">
       <c r="J20" s="43">
         <v>0</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>46</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E22" s="43" t="str">
         <f>E21</f>
         <v>T-MOT*</v>
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E23" s="43" t="str">
         <f t="shared" ref="E23:E24" si="17">E22</f>
         <v>T-MOT*</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E24" s="43" t="str">
         <f t="shared" si="17"/>
         <v>T-MOT*</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:41" x14ac:dyDescent="0.25">
       <c r="J25" s="43">
         <v>0</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
         <v>47</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E27" s="43" t="str">
         <f>E26</f>
         <v>T-CAR*</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E28" s="43" t="str">
         <f t="shared" ref="E28:E29" si="26">E27</f>
         <v>T-CAR*</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E29" s="43" t="str">
         <f t="shared" si="26"/>
         <v>T-CAR*</v>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:41" x14ac:dyDescent="0.25">
       <c r="J30" s="43">
         <v>0</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>48</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E32" s="43" t="str">
         <f>E31</f>
         <v>T-TAX*</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E33" s="43" t="str">
         <f t="shared" ref="E33:E34" si="33">E32</f>
         <v>T-TAX*</v>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E34" s="43" t="str">
         <f t="shared" si="33"/>
         <v>T-TAX*</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:41" x14ac:dyDescent="0.25">
       <c r="J35" s="43">
         <v>0</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
         <v>49</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E37" s="43" t="str">
         <f>E36</f>
         <v>T-BUS*</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E38" s="43" t="str">
         <f t="shared" ref="E38:E39" si="40">E37</f>
         <v>T-BUS*</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E39" s="43" t="str">
         <f t="shared" si="40"/>
         <v>T-BUS*</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:41" x14ac:dyDescent="0.25">
       <c r="J40" s="43">
         <v>0</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
         <v>58</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E42" s="43" t="str">
         <f>E41</f>
         <v>T-LPT*</v>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E43" s="43" t="str">
         <f t="shared" ref="E43:E44" si="47">E42</f>
         <v>T-LPT*</v>
@@ -9707,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E44" s="43" t="str">
         <f t="shared" si="47"/>
         <v>T-LPT*</v>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -9884,10 +9884,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:41" x14ac:dyDescent="0.25">
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:41" x14ac:dyDescent="0.25">
       <c r="M47" s="43" t="s">
         <v>190</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>1.0018</v>
       </c>
     </row>
-    <row r="48" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:41" x14ac:dyDescent="0.25">
       <c r="N48" s="40">
         <f t="shared" ref="N48:AN48" si="52">SUM(N12,N17,N22,N27,N32,N37,N42)</f>
         <v>1.0023</v>
@@ -10110,7 +10110,7 @@
         <v>1.0018</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="N49" s="40">
         <f t="shared" ref="N49:AN49" si="53">SUM(N13,N18,N23,N28,N33,N38,N43)</f>
         <v>1.0029999999999999</v>
@@ -10220,7 +10220,7 @@
         <v>1.0018</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="N50" s="40">
         <f t="shared" ref="N50:AN50" si="54">SUM(N14,N19,N24,N29,N34,N39,N44)</f>
@@ -10331,10 +10331,10 @@
         <v>1.0018</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
     </row>
-    <row r="57" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>187</v>
       </c>
@@ -10343,7 +10343,7 @@
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
     </row>
-    <row r="59" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>202</v>
       </c>
@@ -10376,7 +10376,7 @@
       <c r="AB59" s="31"/>
       <c r="AC59" s="31"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>174</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>176</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>0.29253128431407999</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="31"/>
       <c r="B62" s="31" t="s">
         <v>178</v>
@@ -10641,7 +10641,7 @@
         <v>4.8755214052346667E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>179</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>7.7316749378532367E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="31"/>
       <c r="B64" s="31" t="s">
         <v>181</v>
@@ -10817,7 +10817,7 @@
         <v>0.49285227418620653</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>182</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>4.1049285439853662E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="31"/>
       <c r="B66" s="31" t="s">
         <v>184</v>
@@ -10993,7 +10993,7 @@
         <v>0.16098313140959611</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="31"/>
       <c r="B67" s="31" t="s">
         <v>185</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="31"/>
       <c r="B68" s="31" t="s">
         <v>186</v>
@@ -11167,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="36"/>
       <c r="B69" s="37" t="s">
         <v>188</v>
@@ -11254,7 +11254,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="31"/>
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
@@ -11285,7 +11285,7 @@
       <c r="AB70" s="31"/>
       <c r="AC70" s="31"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -11316,7 +11316,7 @@
       <c r="AB71" s="31"/>
       <c r="AC71" s="31"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
@@ -11347,7 +11347,7 @@
       <c r="AB72" s="31"/>
       <c r="AC72" s="31"/>
     </row>
-    <row r="73" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>196</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="AB73" s="31"/>
       <c r="AC73" s="31"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>174</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>176</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>0.29253128431407999</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="31"/>
       <c r="B76" s="31" t="s">
         <v>178</v>
@@ -11645,7 +11645,7 @@
         <v>4.8755214052346667E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>179</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>7.7316749378532367E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="31"/>
       <c r="B78" s="31" t="s">
         <v>181</v>
@@ -11821,7 +11821,7 @@
         <v>0.49285227418620653</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
         <v>182</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>4.1049285439853662E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="31"/>
       <c r="B80" s="31" t="s">
         <v>184</v>
@@ -11997,7 +11997,7 @@
         <v>0.16098313140959611</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="31"/>
       <c r="B81" s="31" t="s">
         <v>185</v>
@@ -12084,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="31"/>
       <c r="B82" s="31" t="s">
         <v>186</v>
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="36"/>
       <c r="B83" s="37" t="s">
         <v>188</v>
@@ -12258,7 +12258,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="31"/>
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
@@ -12289,7 +12289,7 @@
       <c r="AB84" s="31"/>
       <c r="AC84" s="31"/>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="C85" s="31"/>
@@ -12320,7 +12320,7 @@
       <c r="AB85" s="31"/>
       <c r="AC85" s="31"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
@@ -12351,7 +12351,7 @@
       <c r="AB86" s="31"/>
       <c r="AC86" s="31"/>
     </row>
-    <row r="87" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>199</v>
       </c>
@@ -12384,7 +12384,7 @@
       <c r="AB87" s="31"/>
       <c r="AC87" s="31"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
         <v>174</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>176</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>0.29253128431407999</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="31"/>
       <c r="B90" s="31" t="s">
         <v>178</v>
@@ -12649,7 +12649,7 @@
         <v>4.8755214052346667E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
         <v>179</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>7.7316749378532367E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="31"/>
       <c r="B92" s="31" t="s">
         <v>181</v>
@@ -12825,7 +12825,7 @@
         <v>0.49285227418620653</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
         <v>182</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>4.1049285439853662E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="31"/>
       <c r="B94" s="31" t="s">
         <v>184</v>
@@ -13001,7 +13001,7 @@
         <v>0.16098313140959611</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="31"/>
       <c r="B95" s="31" t="s">
         <v>185</v>
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="31"/>
       <c r="B96" s="31" t="s">
         <v>186</v>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="36"/>
       <c r="B97" s="37" t="s">
         <v>188</v>
@@ -13262,7 +13262,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="31"/>
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
@@ -13293,7 +13293,7 @@
       <c r="AB109" s="31"/>
       <c r="AC109" s="31"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="31"/>
       <c r="B110" s="31"/>
       <c r="C110" s="31"/>
@@ -13324,7 +13324,7 @@
       <c r="AB110" s="31"/>
       <c r="AC110" s="31"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="31"/>
       <c r="B111" s="31"/>
       <c r="C111" s="31"/>
@@ -13370,23 +13370,23 @@
       <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="29" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="40" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="29" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.35">
       <c r="C3" s="42" t="s">
         <v>195</v>
       </c>
@@ -13395,22 +13395,22 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
     </row>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -13453,7 +13453,7 @@
       <c r="AN9" s="43"/>
       <c r="AO9" s="43"/>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C11" s="43" t="s">
         <v>205</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
       <c r="E12" s="43" t="str">
@@ -13876,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
       <c r="E13" s="43" t="str">
@@ -14012,7 +14012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
       <c r="E14" s="43" t="str">
@@ -14148,7 +14148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
@@ -14195,7 +14195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>50</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E17" s="43" t="str">
         <f>E16</f>
         <v>T-MOT*</v>
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E18" s="43" t="str">
         <f t="shared" ref="E18:E19" si="12">E17</f>
         <v>T-MOT*</v>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E19" s="43" t="str">
         <f t="shared" si="12"/>
         <v>T-MOT*</v>
@@ -14722,7 +14722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J20" s="43">
         <v>0</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>51</v>
       </c>
@@ -14901,7 +14901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C22" s="43"/>
       <c r="D22" s="43"/>
       <c r="E22" s="43" t="str">
@@ -15037,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43" t="str">
@@ -15173,7 +15173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
       <c r="E24" s="43" t="str">
@@ -15309,7 +15309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
       <c r="E25" s="43"/>
@@ -15356,7 +15356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
         <v>52</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E27" s="43" t="str">
         <f>E26</f>
         <v>T-TAX*</v>
@@ -15623,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E28" s="43" t="str">
         <f t="shared" ref="E28:E29" si="28">E27</f>
         <v>T-TAX*</v>
@@ -15753,7 +15753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E29" s="43" t="str">
         <f t="shared" si="28"/>
         <v>T-TAX*</v>
@@ -15883,7 +15883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J30" s="43">
         <v>0</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>53</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E32" s="43" t="str">
         <f>E31</f>
         <v>T-BUS*</v>
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E33" s="43" t="str">
         <f t="shared" ref="E33:E34" si="35">E32</f>
         <v>T-BUS*</v>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E34" s="43" t="str">
         <f t="shared" si="35"/>
         <v>T-BUS*</v>
@@ -16448,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J35" s="43">
         <v>0</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
         <v>189</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E37" s="43" t="str">
         <f>E36</f>
         <v>T-LPT*</v>
@@ -16753,7 +16753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E38" s="43" t="str">
         <f t="shared" ref="E38:E39" si="42">E37</f>
         <v>T-LPT*</v>
@@ -16883,7 +16883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E39" s="43" t="str">
         <f t="shared" si="42"/>
         <v>T-LPT*</v>
@@ -17013,7 +17013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -17060,7 +17060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="9" t="s">
         <v>206</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E42" s="43" t="str">
         <f>E41</f>
         <v>T-HPT*</v>
@@ -17327,7 +17327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E43" s="43" t="str">
         <f t="shared" ref="E43:E44" si="49">E42</f>
         <v>T-HPT*</v>
@@ -17457,7 +17457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E44" s="43" t="str">
         <f t="shared" si="49"/>
         <v>T-HPT*</v>
@@ -17587,7 +17587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -17634,10 +17634,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M47" s="43" t="s">
         <v>190</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="48" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:41" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N48" s="40">
         <f t="shared" ref="N48:AN48" si="54">SUM(N12,N17,N22,N27,N32,N37,N42)</f>
         <v>1.0023</v>
@@ -17860,7 +17860,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="49" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N49" s="40">
         <f t="shared" ref="N49:AN49" si="55">SUM(N13,N18,N23,N28,N33,N38,N43)</f>
         <v>1</v>
@@ -17970,7 +17970,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="50" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="N50" s="40">
         <f t="shared" ref="N50:AN50" si="56">SUM(N14,N19,N24,N29,N34,N39,N44)</f>
@@ -18081,7 +18081,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="I51" s="2"/>
@@ -18107,7 +18107,7 @@
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="I52" s="2"/>
@@ -18133,7 +18133,7 @@
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="I53" s="2"/>
@@ -18159,7 +18159,7 @@
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="I54" s="2"/>
@@ -18185,7 +18185,7 @@
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -18217,7 +18217,7 @@
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -18249,7 +18249,7 @@
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
     </row>
-    <row r="57" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>187</v>
       </c>
@@ -18283,7 +18283,7 @@
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -18315,7 +18315,7 @@
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
     </row>
-    <row r="59" spans="1:40" s="43" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:40" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>203</v>
       </c>
@@ -18348,7 +18348,7 @@
       <c r="AB59" s="31"/>
       <c r="AC59" s="31"/>
     </row>
-    <row r="60" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>174</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>176</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="31"/>
       <c r="B62" s="31" t="s">
         <v>178</v>
@@ -18613,7 +18613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>179</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>1.9708873200458749E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="31"/>
       <c r="B64" s="31" t="s">
         <v>181</v>
@@ -18789,7 +18789,7 @@
         <v>0.7484312106638259</v>
       </c>
     </row>
-    <row r="65" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>182</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>5.1335741680296381E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="31"/>
       <c r="B66" s="31" t="s">
         <v>184</v>
@@ -18965,7 +18965,7 @@
         <v>0.24446432784809863</v>
       </c>
     </row>
-    <row r="67" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31"/>
       <c r="B67" s="31" t="s">
         <v>185</v>
@@ -19052,7 +19052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="31"/>
       <c r="B68" s="31" t="s">
         <v>186</v>
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36"/>
       <c r="B69" s="37" t="s">
         <v>188</v>
@@ -19226,7 +19226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="31"/>
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
@@ -19258,7 +19258,7 @@
       <c r="AC70" s="31"/>
       <c r="AD70" s="2"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -19290,7 +19290,7 @@
       <c r="AC71" s="31"/>
       <c r="AD71" s="2"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
@@ -19322,7 +19322,7 @@
       <c r="AC72" s="31"/>
       <c r="AD72" s="2"/>
     </row>
-    <row r="73" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>197</v>
       </c>
@@ -19356,7 +19356,7 @@
       <c r="AC73" s="31"/>
       <c r="AD73" s="2"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>174</v>
       </c>
@@ -19446,7 +19446,7 @@
       </c>
       <c r="AD74" s="2"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>176</v>
       </c>
@@ -19536,7 +19536,7 @@
       </c>
       <c r="AD75" s="2"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="31"/>
       <c r="B76" s="31" t="s">
         <v>178</v>
@@ -19624,7 +19624,7 @@
       </c>
       <c r="AD76" s="2"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>179</v>
       </c>
@@ -19714,7 +19714,7 @@
       </c>
       <c r="AD77" s="2"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="31"/>
       <c r="B78" s="31" t="s">
         <v>181</v>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="AD78" s="2"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
         <v>182</v>
       </c>
@@ -19892,7 +19892,7 @@
       </c>
       <c r="AD79" s="2"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="31"/>
       <c r="B80" s="31" t="s">
         <v>184</v>
@@ -19980,7 +19980,7 @@
       </c>
       <c r="AD80" s="2"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" s="31"/>
       <c r="B81" s="31" t="s">
         <v>185</v>
@@ -20068,7 +20068,7 @@
       </c>
       <c r="AD81" s="2"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" s="31"/>
       <c r="B82" s="31" t="s">
         <v>186</v>
@@ -20156,7 +20156,7 @@
       </c>
       <c r="AD82" s="2"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="36"/>
       <c r="B83" s="37" t="s">
         <v>188</v>
@@ -20244,7 +20244,7 @@
       </c>
       <c r="AD83" s="2"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="31"/>
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
@@ -20276,7 +20276,7 @@
       <c r="AC84" s="31"/>
       <c r="AD84" s="2"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="C85" s="31"/>
@@ -20308,7 +20308,7 @@
       <c r="AC85" s="31"/>
       <c r="AD85" s="2"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
@@ -20340,7 +20340,7 @@
       <c r="AC86" s="31"/>
       <c r="AD86" s="2"/>
     </row>
-    <row r="87" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>200</v>
       </c>
@@ -20374,7 +20374,7 @@
       <c r="AC87" s="31"/>
       <c r="AD87" s="2"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
         <v>174</v>
       </c>
@@ -20464,7 +20464,7 @@
       </c>
       <c r="AD88" s="2"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>176</v>
       </c>
@@ -20554,7 +20554,7 @@
       </c>
       <c r="AD89" s="2"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="31"/>
       <c r="B90" s="31" t="s">
         <v>178</v>
@@ -20642,7 +20642,7 @@
       </c>
       <c r="AD90" s="2"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
         <v>179</v>
       </c>
@@ -20732,7 +20732,7 @@
       </c>
       <c r="AD91" s="2"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" s="31"/>
       <c r="B92" s="31" t="s">
         <v>181</v>
@@ -20820,7 +20820,7 @@
       </c>
       <c r="AD92" s="2"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
         <v>182</v>
       </c>
@@ -20910,7 +20910,7 @@
       </c>
       <c r="AD93" s="2"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" s="31"/>
       <c r="B94" s="31" t="s">
         <v>184</v>
@@ -20998,7 +20998,7 @@
       </c>
       <c r="AD94" s="2"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" s="31"/>
       <c r="B95" s="31" t="s">
         <v>185</v>
@@ -21086,7 +21086,7 @@
       </c>
       <c r="AD95" s="2"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" s="31"/>
       <c r="B96" s="31" t="s">
         <v>186</v>
@@ -21174,7 +21174,7 @@
       </c>
       <c r="AD96" s="2"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="36"/>
       <c r="B97" s="37" t="s">
         <v>188</v>
@@ -21262,7 +21262,7 @@
       </c>
       <c r="AD97" s="2"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -21294,7 +21294,7 @@
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -21341,22 +21341,22 @@
       <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="43" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="43" customWidth="1"/>
-    <col min="5" max="13" width="10.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" style="43" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="29" width="10.88671875" style="43" bestFit="1" customWidth="1"/>
-    <col min="30" max="40" width="10.44140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="8.6640625" style="43"/>
+    <col min="1" max="1" width="20.140625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="43" customWidth="1"/>
+    <col min="5" max="13" width="10.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="43" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="29" width="10.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="10.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.7109375" style="43"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:41" ht="21" x14ac:dyDescent="0.35">
       <c r="C3" s="42" t="s">
         <v>195</v>
       </c>
@@ -21365,27 +21365,27 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
     </row>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B6" s="43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.25">
       <c r="K9" s="43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C11" s="43" t="s">
         <v>54</v>
       </c>
@@ -21668,7 +21668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.25">
       <c r="E12" s="43" t="str">
         <f>E11</f>
         <v>T-CAR*</v>
@@ -21798,7 +21798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.25">
       <c r="E13" s="43" t="str">
         <f t="shared" ref="E13:E14" si="3">E12</f>
         <v>T-CAR*</v>
@@ -21928,7 +21928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.25">
       <c r="E14" s="43" t="str">
         <f t="shared" si="3"/>
         <v>T-CAR*</v>
@@ -22058,7 +22058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.25">
       <c r="J15" s="43">
         <v>0</v>
       </c>
@@ -22096,7 +22096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>55</v>
       </c>
@@ -22233,7 +22233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E17" s="43" t="str">
         <f>E16</f>
         <v>T-TAX*</v>
@@ -22363,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E18" s="43" t="str">
         <f t="shared" ref="E18:E19" si="10">E17</f>
         <v>T-TAX*</v>
@@ -22493,7 +22493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E19" s="43" t="str">
         <f t="shared" si="10"/>
         <v>T-TAX*</v>
@@ -22623,7 +22623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:41" x14ac:dyDescent="0.25">
       <c r="J20" s="43">
         <v>0</v>
       </c>
@@ -22661,7 +22661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>56</v>
       </c>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E22" s="43" t="str">
         <f>E21</f>
         <v>T-BUS*</v>
@@ -22928,7 +22928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E23" s="43" t="str">
         <f t="shared" ref="E23:E24" si="17">E22</f>
         <v>T-BUS*</v>
@@ -23058,7 +23058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E24" s="43" t="str">
         <f t="shared" si="17"/>
         <v>T-BUS*</v>
@@ -23188,7 +23188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:41" x14ac:dyDescent="0.25">
       <c r="J25" s="43">
         <v>0</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
         <v>57</v>
       </c>
@@ -23364,7 +23364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E27" s="43" t="str">
         <f>E26</f>
         <v>T-HPT*</v>
@@ -23494,7 +23494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E28" s="43" t="str">
         <f t="shared" ref="E28:E29" si="24">E27</f>
         <v>T-HPT*</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E29" s="43" t="str">
         <f t="shared" si="24"/>
         <v>T-HPT*</v>
@@ -23754,7 +23754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -23801,10 +23801,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:41" x14ac:dyDescent="0.25">
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:41" x14ac:dyDescent="0.25">
       <c r="M32" s="43" t="s">
         <v>190</v>
       </c>
@@ -23917,7 +23917,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="N33" s="40">
         <f t="shared" ref="N33:AN33" si="29">SUM(,N12,N17,N22,N27)</f>
         <v>1.0030000000000001</v>
@@ -24027,7 +24027,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="N34" s="40">
         <f t="shared" ref="N34:AN34" si="30">SUM(,N13,N18,N23,N28)</f>
         <v>1.0049999999999999</v>
@@ -24137,7 +24137,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="N35" s="40">
         <f t="shared" ref="N35:AN35" si="31">SUM(,N14,N19,N24,N29)</f>
@@ -24248,10 +24248,10 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
     </row>
-    <row r="42" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>187</v>
       </c>
@@ -24260,7 +24260,7 @@
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
     </row>
-    <row r="44" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>204</v>
       </c>
@@ -24293,7 +24293,7 @@
       <c r="AB44" s="31"/>
       <c r="AC44" s="31"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>174</v>
       </c>
@@ -24382,7 +24382,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>176</v>
       </c>
@@ -24471,7 +24471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="31" t="s">
         <v>178</v>
@@ -24558,7 +24558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>179</v>
       </c>
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
       <c r="B49" s="31" t="s">
         <v>181</v>
@@ -24734,7 +24734,7 @@
         <v>0.64231184378282558</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>182</v>
       </c>
@@ -24823,7 +24823,7 @@
         <v>2.7483693665086213E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="31" t="s">
         <v>184</v>
@@ -24910,7 +24910,7 @@
         <v>0.28624951607603277</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
       <c r="B52" s="31" t="s">
         <v>185</v>
@@ -24997,7 +24997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
       <c r="B53" s="31" t="s">
         <v>186</v>
@@ -25084,7 +25084,7 @@
         <v>6.8690270774633036E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="36"/>
       <c r="B54" s="37" t="s">
         <v>188</v>
@@ -25171,7 +25171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
@@ -25202,7 +25202,7 @@
       <c r="AB55" s="31"/>
       <c r="AC55" s="31"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
@@ -25233,7 +25233,7 @@
       <c r="AB56" s="31"/>
       <c r="AC56" s="31"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="31"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
@@ -25264,7 +25264,7 @@
       <c r="AB57" s="31"/>
       <c r="AC57" s="31"/>
     </row>
-    <row r="58" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>198</v>
       </c>
@@ -25297,7 +25297,7 @@
       <c r="AB58" s="31"/>
       <c r="AC58" s="31"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>174</v>
       </c>
@@ -25386,7 +25386,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>176</v>
       </c>
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="31"/>
       <c r="B61" s="31" t="s">
         <v>178</v>
@@ -25562,7 +25562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>179</v>
       </c>
@@ -25651,7 +25651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="31"/>
       <c r="B63" s="31" t="s">
         <v>181</v>
@@ -25738,7 +25738,7 @@
         <v>0.64231184378282558</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>182</v>
       </c>
@@ -25827,7 +25827,7 @@
         <v>2.7483693665086213E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="31"/>
       <c r="B65" s="31" t="s">
         <v>184</v>
@@ -25914,7 +25914,7 @@
         <v>0.28624951607603277</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="31"/>
       <c r="B66" s="31" t="s">
         <v>185</v>
@@ -26001,7 +26001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="31"/>
       <c r="B67" s="31" t="s">
         <v>186</v>
@@ -26088,7 +26088,7 @@
         <v>6.8690270774633036E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>
       <c r="B68" s="37" t="s">
         <v>188</v>
@@ -26175,7 +26175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="31"/>
       <c r="B69" s="31"/>
       <c r="C69" s="31"/>
@@ -26206,7 +26206,7 @@
       <c r="AB69" s="31"/>
       <c r="AC69" s="31"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="31"/>
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
@@ -26237,7 +26237,7 @@
       <c r="AB70" s="31"/>
       <c r="AC70" s="31"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -26268,7 +26268,7 @@
       <c r="AB71" s="31"/>
       <c r="AC71" s="31"/>
     </row>
-    <row r="72" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>201</v>
       </c>
@@ -26301,7 +26301,7 @@
       <c r="AB72" s="31"/>
       <c r="AC72" s="31"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>174</v>
       </c>
@@ -26390,7 +26390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
         <v>176</v>
       </c>
@@ -26479,7 +26479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="31"/>
       <c r="B75" s="31" t="s">
         <v>178</v>
@@ -26566,7 +26566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
         <v>179</v>
       </c>
@@ -26655,7 +26655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="31"/>
       <c r="B77" s="31" t="s">
         <v>181</v>
@@ -26742,7 +26742,7 @@
         <v>0.64231184378282558</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>182</v>
       </c>
@@ -26831,7 +26831,7 @@
         <v>2.7483693665086213E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="31"/>
       <c r="B79" s="31" t="s">
         <v>184</v>
@@ -26918,7 +26918,7 @@
         <v>0.28624951607603277</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="31"/>
       <c r="B80" s="31" t="s">
         <v>185</v>
@@ -27005,7 +27005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="31"/>
       <c r="B81" s="31" t="s">
         <v>186</v>
@@ -27092,7 +27092,7 @@
         <v>6.8690270774633036E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="36"/>
       <c r="B82" s="37" t="s">
         <v>188</v>
@@ -27194,17 +27194,17 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="33" width="9.109375" style="43"/>
-    <col min="34" max="34" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="33" width="9.140625" style="43"/>
+    <col min="34" max="34" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
         <v>207</v>
       </c>
@@ -27216,7 +27216,7 @@
       <c r="AH2" s="43"/>
       <c r="AI2" s="43"/>
     </row>
-    <row r="3" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="51" t="s">
         <v>208</v>
       </c>
@@ -27348,7 +27348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -27470,7 +27470,7 @@
         <v>TRAPM</v>
       </c>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
       <c r="F5" s="43" t="s">
         <v>209</v>
       </c>
@@ -27602,15 +27602,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>95</v>
       </c>
@@ -27620,7 +27620,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>96</v>
       </c>
@@ -27632,7 +27632,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>98</v>
       </c>
@@ -27642,7 +27642,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>99</v>
       </c>
@@ -27652,7 +27652,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>100</v>
       </c>
@@ -27664,7 +27664,7 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>102</v>
       </c>
@@ -27676,7 +27676,7 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>104</v>
       </c>
@@ -27686,7 +27686,7 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>105</v>
       </c>
@@ -27698,7 +27698,7 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>107</v>
       </c>
@@ -27708,7 +27708,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
         <v>108</v>
       </c>
@@ -27720,7 +27720,7 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>110</v>
       </c>
@@ -27732,7 +27732,7 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>112</v>
       </c>
@@ -27744,7 +27744,7 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>114</v>
       </c>
@@ -27756,7 +27756,7 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>116</v>
       </c>
@@ -27768,7 +27768,7 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>118</v>
       </c>
@@ -27780,7 +27780,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>120</v>
       </c>
@@ -27792,7 +27792,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>122</v>
       </c>
@@ -27804,7 +27804,7 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>124</v>
       </c>
@@ -27816,7 +27816,7 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
         <v>126</v>
       </c>
@@ -27826,7 +27826,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>127</v>
       </c>
@@ -27838,7 +27838,7 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="20" t="s">
         <v>129</v>
       </c>
@@ -27850,7 +27850,7 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>131</v>
       </c>
@@ -27862,7 +27862,7 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>133</v>
       </c>
@@ -27872,7 +27872,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>134</v>
       </c>
@@ -27884,7 +27884,7 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
         <v>136</v>
       </c>
@@ -27894,7 +27894,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>137</v>
       </c>
@@ -27906,7 +27906,7 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
         <v>139</v>
       </c>
@@ -27918,7 +27918,7 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
     </row>
-    <row r="29" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="20" t="s">
         <v>141</v>
       </c>
@@ -27930,7 +27930,7 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
     </row>
-    <row r="30" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>143</v>
       </c>
@@ -27940,7 +27940,7 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
         <v>144</v>
       </c>
@@ -27950,7 +27950,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
         <v>145</v>
       </c>
@@ -27962,7 +27962,7 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="20" t="s">
         <v>191</v>
       </c>
@@ -27974,7 +27974,7 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="20" t="s">
         <v>193</v>
       </c>
@@ -27986,7 +27986,7 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
         <v>147</v>
       </c>
@@ -27998,7 +27998,7 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
-    <row r="36" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="20" t="s">
         <v>149</v>
       </c>
@@ -28010,7 +28010,7 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
     </row>
-    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21" t="s">
         <v>151</v>
       </c>
@@ -28020,7 +28020,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="20" t="s">
         <v>152</v>
       </c>
@@ -28032,7 +28032,7 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="20" t="s">
         <v>154</v>
       </c>
@@ -28044,7 +28044,7 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
     </row>
-    <row r="40" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="20" t="s">
         <v>156</v>
       </c>
@@ -28056,7 +28056,7 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
     </row>
-    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="21" t="s">
         <v>158</v>
       </c>
@@ -28066,7 +28066,7 @@
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
         <v>159</v>
       </c>
@@ -28078,7 +28078,7 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
     </row>
-    <row r="43" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="22" t="s">
         <v>161</v>
       </c>
@@ -28090,7 +28090,7 @@
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
@@ -28098,7 +28098,7 @@
       <c r="F44" s="43"/>
       <c r="G44" s="43"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
       <c r="D45" s="43"/>
@@ -28106,7 +28106,7 @@
       <c r="F45" s="43"/>
       <c r="G45" s="43"/>
     </row>
-    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="s">
         <v>163</v>
       </c>
@@ -28122,7 +28122,7 @@
       <c r="F46" s="43"/>
       <c r="G46" s="43"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="43" t="s">
         <v>167</v>
       </c>
@@ -28138,7 +28138,7 @@
       <c r="F47" s="43"/>
       <c r="G47" s="43"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="43" t="s">
         <v>170</v>
       </c>
@@ -28154,7 +28154,7 @@
       <c r="F48" s="43"/>
       <c r="G48" s="43"/>
     </row>
-    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="24" t="s">
         <v>172</v>
       </c>
@@ -28170,7 +28170,7 @@
       <c r="F49" s="43"/>
       <c r="G49" s="43"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
       <c r="D50" s="43"/>
@@ -28178,7 +28178,7 @@
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
       <c r="D51" s="43"/>
@@ -28186,7 +28186,7 @@
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
     </row>
-    <row r="52" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="28" t="s">
         <v>174</v>
       </c>
@@ -28196,7 +28196,7 @@
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
     </row>
-    <row r="53" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="25" t="s">
         <v>174</v>
       </c>
@@ -28208,7 +28208,7 @@
       <c r="F53" s="43"/>
       <c r="G53" s="43"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="43" t="s">
         <v>176</v>
       </c>
@@ -28220,7 +28220,7 @@
       <c r="F54" s="43"/>
       <c r="G54" s="43"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="43"/>
       <c r="C55" s="43" t="s">
         <v>178</v>
@@ -28230,7 +28230,7 @@
       <c r="F55" s="43"/>
       <c r="G55" s="43"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="43" t="s">
         <v>179</v>
       </c>
@@ -28242,7 +28242,7 @@
       <c r="F56" s="43"/>
       <c r="G56" s="43"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="43"/>
       <c r="C57" s="43" t="s">
         <v>181</v>
@@ -28252,7 +28252,7 @@
       <c r="F57" s="43"/>
       <c r="G57" s="43"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="43" t="s">
         <v>182</v>
       </c>
@@ -28264,7 +28264,7 @@
       <c r="F58" s="43"/>
       <c r="G58" s="43"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="43"/>
       <c r="C59" s="43" t="s">
         <v>184</v>
@@ -28274,7 +28274,7 @@
       <c r="F59" s="43"/>
       <c r="G59" s="43"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="43"/>
       <c r="C60" s="43" t="s">
         <v>185</v>
@@ -28284,7 +28284,7 @@
       <c r="F60" s="43"/>
       <c r="G60" s="43"/>
     </row>
-    <row r="61" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="24"/>
       <c r="C61" s="24" t="s">
         <v>186</v>
